--- a/Networks/Parte4/Excel/Network32.xlsx
+++ b/Networks/Parte4/Excel/Network32.xlsx
@@ -605,100 +605,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>481.4787443685888</v>
+        <v>9.634091474648182</v>
       </c>
       <c r="C2" t="n">
-        <v>-1664.543252559987</v>
+        <v>-46.52728908754396</v>
       </c>
       <c r="D2" t="n">
-        <v>83.54805521072943</v>
+        <v>-26.85356265761475</v>
       </c>
       <c r="E2" t="n">
-        <v>-968.5251349173495</v>
+        <v>-55.14390328394224</v>
       </c>
       <c r="F2" t="n">
-        <v>-140.3147237929165</v>
+        <v>36.20397769772215</v>
       </c>
       <c r="G2" t="n">
-        <v>-223.2704691334108</v>
+        <v>-27.26075433179141</v>
       </c>
       <c r="H2" t="n">
-        <v>19.11300287433089</v>
+        <v>-2.822425005231773</v>
       </c>
       <c r="I2" t="n">
-        <v>1471.098631541517</v>
+        <v>-55.25247072615907</v>
       </c>
       <c r="J2" t="n">
-        <v>-617.5187691371989</v>
+        <v>-56.63222041368218</v>
       </c>
       <c r="K2" t="n">
-        <v>-153.9795072824396</v>
+        <v>7.219010144460181</v>
       </c>
       <c r="L2" t="n">
-        <v>-745.5801256254101</v>
+        <v>-43.06667936909496</v>
       </c>
       <c r="M2" t="n">
-        <v>60.42244744449082</v>
+        <v>-59.6695537743087</v>
       </c>
       <c r="N2" t="n">
-        <v>82.41849162017057</v>
+        <v>4.513611997969589</v>
       </c>
       <c r="O2" t="n">
-        <v>1035.298019078288</v>
+        <v>-16.07863909458072</v>
       </c>
       <c r="P2" t="n">
-        <v>1510.231026362746</v>
+        <v>1.755085199726074</v>
       </c>
       <c r="Q2" t="n">
-        <v>-44.2340590719167</v>
+        <v>21.77946979694128</v>
       </c>
       <c r="R2" t="n">
-        <v>133.5066259563616</v>
+        <v>0.160614158499826</v>
       </c>
       <c r="S2" t="n">
-        <v>5174.265866782904</v>
+        <v>-23.4665771607623</v>
       </c>
       <c r="T2" t="n">
-        <v>-1360.081008779327</v>
+        <v>-20.58446699944738</v>
       </c>
       <c r="U2" t="n">
-        <v>94.64301334909359</v>
+        <v>-43.65977276723221</v>
       </c>
       <c r="V2" t="n">
-        <v>16.1464698059848</v>
+        <v>26.77812406650757</v>
       </c>
       <c r="W2" t="n">
-        <v>284.5919713009179</v>
+        <v>43.81809968435282</v>
       </c>
       <c r="X2" t="n">
-        <v>-87.2228346503762</v>
+        <v>15.87939707719937</v>
       </c>
       <c r="Y2" t="n">
-        <v>-572.7794569346584</v>
+        <v>-88.65412608752823</v>
       </c>
       <c r="Z2" t="n">
-        <v>-921.8267599024705</v>
+        <v>-43.67811237336582</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.626442671384</v>
+        <v>-44.12965568050267</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.1324852742231</v>
+        <v>-38.18866345718832</v>
       </c>
       <c r="AC2" t="n">
-        <v>-237.6449931219539</v>
+        <v>-2.006759210477775</v>
       </c>
       <c r="AD2" t="n">
-        <v>-487.6000436520699</v>
+        <v>-12.3554455787483</v>
       </c>
       <c r="AE2" t="n">
-        <v>-74.65455857671948</v>
+        <v>-30.44810014122525</v>
       </c>
       <c r="AF2" t="n">
-        <v>-110.6987481767163</v>
+        <v>-17.21796161495379</v>
       </c>
       <c r="AG2" t="n">
-        <v>-389.8256356956933</v>
+        <v>-35.58515947152573</v>
       </c>
     </row>
     <row r="3">
@@ -708,100 +708,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.60305702468509</v>
+        <v>15.17723152336236</v>
       </c>
       <c r="C3" t="n">
-        <v>-766.4611908849907</v>
+        <v>37.2061317745733</v>
       </c>
       <c r="D3" t="n">
-        <v>113.9644934913484</v>
+        <v>14.69756073626461</v>
       </c>
       <c r="E3" t="n">
-        <v>1296.489085020724</v>
+        <v>30.20072167112323</v>
       </c>
       <c r="F3" t="n">
-        <v>-65.84030835408052</v>
+        <v>52.79052542952817</v>
       </c>
       <c r="G3" t="n">
-        <v>243.5830655321375</v>
+        <v>-4.773772410903616</v>
       </c>
       <c r="H3" t="n">
-        <v>265.0253600765824</v>
+        <v>46.79655059758282</v>
       </c>
       <c r="I3" t="n">
-        <v>-1882.407586579254</v>
+        <v>21.93711273896431</v>
       </c>
       <c r="J3" t="n">
-        <v>-496.5697442419455</v>
+        <v>-66.68094631265052</v>
       </c>
       <c r="K3" t="n">
-        <v>527.7107622864175</v>
+        <v>-59.15575641862173</v>
       </c>
       <c r="L3" t="n">
-        <v>702.4596099786452</v>
+        <v>53.84102838783331</v>
       </c>
       <c r="M3" t="n">
-        <v>-69.80689871788394</v>
+        <v>26.22074535686036</v>
       </c>
       <c r="N3" t="n">
-        <v>-115.2243698921477</v>
+        <v>31.83353956902915</v>
       </c>
       <c r="O3" t="n">
-        <v>267.370880995141</v>
+        <v>53.04041602247026</v>
       </c>
       <c r="P3" t="n">
-        <v>-775.5671006372983</v>
+        <v>24.45590791461838</v>
       </c>
       <c r="Q3" t="n">
-        <v>-92.1968537571624</v>
+        <v>15.21636993492861</v>
       </c>
       <c r="R3" t="n">
-        <v>78.33223745585617</v>
+        <v>47.18849692741473</v>
       </c>
       <c r="S3" t="n">
-        <v>7012.679669333384</v>
+        <v>-1.601401602603859</v>
       </c>
       <c r="T3" t="n">
-        <v>-158.2604437120028</v>
+        <v>4.85570984563357</v>
       </c>
       <c r="U3" t="n">
-        <v>-49.7936422088886</v>
+        <v>-21.03257101794417</v>
       </c>
       <c r="V3" t="n">
-        <v>-131.7249855326178</v>
+        <v>44.6539167373513</v>
       </c>
       <c r="W3" t="n">
-        <v>399.0451960874326</v>
+        <v>-1.26281388715118</v>
       </c>
       <c r="X3" t="n">
-        <v>174.7208149896122</v>
+        <v>5.527875427413081</v>
       </c>
       <c r="Y3" t="n">
-        <v>-608.1486893105218</v>
+        <v>7.725950202201687</v>
       </c>
       <c r="Z3" t="n">
-        <v>117.7806347742387</v>
+        <v>32.50095669144006</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.3345187109121</v>
+        <v>-45.34362172331348</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.2567660762277</v>
+        <v>5.557747553038168</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.032649683943</v>
+        <v>57.24478758123996</v>
       </c>
       <c r="AD3" t="n">
-        <v>-35.38449040477337</v>
+        <v>19.40207745671525</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.550051225238452</v>
+        <v>32.55880011510363</v>
       </c>
       <c r="AF3" t="n">
-        <v>114.6285115725713</v>
+        <v>13.56157541905491</v>
       </c>
       <c r="AG3" t="n">
-        <v>126.8902766947084</v>
+        <v>30.71603126397389</v>
       </c>
     </row>
     <row r="4">
@@ -811,100 +811,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-454.8845112834806</v>
+        <v>-64.98239812637668</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5480463544579</v>
+        <v>4.017696252204324</v>
       </c>
       <c r="D4" t="n">
-        <v>-13.10626059128527</v>
+        <v>-16.7357906744884</v>
       </c>
       <c r="E4" t="n">
-        <v>-1081.41202097206</v>
+        <v>13.48948835422453</v>
       </c>
       <c r="F4" t="n">
-        <v>-301.8844053054497</v>
+        <v>41.81032977963465</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.541027044697522</v>
+        <v>-17.16496619164053</v>
       </c>
       <c r="H4" t="n">
-        <v>102.3316858961535</v>
+        <v>-11.37909367273628</v>
       </c>
       <c r="I4" t="n">
-        <v>790.9572331980359</v>
+        <v>25.09593671518168</v>
       </c>
       <c r="J4" t="n">
-        <v>769.3349525300213</v>
+        <v>-1.472745398540169</v>
       </c>
       <c r="K4" t="n">
-        <v>-337.6016325921283</v>
+        <v>-11.77484400517642</v>
       </c>
       <c r="L4" t="n">
-        <v>-777.2318842217925</v>
+        <v>12.11579827684643</v>
       </c>
       <c r="M4" t="n">
-        <v>-156.211280948832</v>
+        <v>37.73231353741996</v>
       </c>
       <c r="N4" t="n">
-        <v>18.9982740240433</v>
+        <v>19.24807873578968</v>
       </c>
       <c r="O4" t="n">
-        <v>742.6064430842744</v>
+        <v>16.88896535222232</v>
       </c>
       <c r="P4" t="n">
-        <v>-2903.691070346579</v>
+        <v>28.24647136182721</v>
       </c>
       <c r="Q4" t="n">
-        <v>134.4971711942628</v>
+        <v>17.98540785125744</v>
       </c>
       <c r="R4" t="n">
-        <v>-149.6413219219719</v>
+        <v>15.18263521575492</v>
       </c>
       <c r="S4" t="n">
-        <v>-169.1929442908906</v>
+        <v>-31.07465353252224</v>
       </c>
       <c r="T4" t="n">
-        <v>-1199.264672929335</v>
+        <v>-29.0768339394426</v>
       </c>
       <c r="U4" t="n">
-        <v>180.05593458089</v>
+        <v>-22.50592174630094</v>
       </c>
       <c r="V4" t="n">
-        <v>257.5895699890622</v>
+        <v>13.25643386375913</v>
       </c>
       <c r="W4" t="n">
-        <v>273.4418075016935</v>
+        <v>25.25666972330933</v>
       </c>
       <c r="X4" t="n">
-        <v>142.3538642159735</v>
+        <v>-28.49977290148819</v>
       </c>
       <c r="Y4" t="n">
-        <v>-367.1702257595093</v>
+        <v>42.57805394308856</v>
       </c>
       <c r="Z4" t="n">
-        <v>-996.1119344728438</v>
+        <v>24.21019898196037</v>
       </c>
       <c r="AA4" t="n">
-        <v>-70.41564413615416</v>
+        <v>9.451780618287293</v>
       </c>
       <c r="AB4" t="n">
-        <v>-94.55657478129918</v>
+        <v>43.71210616736406</v>
       </c>
       <c r="AC4" t="n">
-        <v>-110.8392237817129</v>
+        <v>-18.45525818515762</v>
       </c>
       <c r="AD4" t="n">
-        <v>221.2901983032957</v>
+        <v>-20.18572195665801</v>
       </c>
       <c r="AE4" t="n">
-        <v>70.28280719956206</v>
+        <v>9.799637067735636</v>
       </c>
       <c r="AF4" t="n">
-        <v>54.07546293116798</v>
+        <v>-41.5066032411573</v>
       </c>
       <c r="AG4" t="n">
-        <v>-33.1675630192879</v>
+        <v>11.5094346924379</v>
       </c>
     </row>
     <row r="5">
@@ -914,100 +914,100 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-356.4754424248791</v>
+        <v>-15.32547409108295</v>
       </c>
       <c r="C5" t="n">
-        <v>784.6285015807067</v>
+        <v>8.939261887535322</v>
       </c>
       <c r="D5" t="n">
-        <v>-87.71645556252285</v>
+        <v>-5.36573151797037</v>
       </c>
       <c r="E5" t="n">
-        <v>-454.0649130441259</v>
+        <v>8.675151393573042</v>
       </c>
       <c r="F5" t="n">
-        <v>-497.1033822178765</v>
+        <v>2.15444114669637</v>
       </c>
       <c r="G5" t="n">
-        <v>-209.4381669254914</v>
+        <v>-22.85197164400222</v>
       </c>
       <c r="H5" t="n">
-        <v>42.86346735061898</v>
+        <v>6.058045051660259</v>
       </c>
       <c r="I5" t="n">
-        <v>-57.62547346289288</v>
+        <v>28.34556358836506</v>
       </c>
       <c r="J5" t="n">
-        <v>1025.759611797029</v>
+        <v>9.658344459033874</v>
       </c>
       <c r="K5" t="n">
-        <v>-231.0776202899573</v>
+        <v>-30.70625806168512</v>
       </c>
       <c r="L5" t="n">
-        <v>8.468357493451622</v>
+        <v>-3.919500553374738</v>
       </c>
       <c r="M5" t="n">
-        <v>-51.68984977955541</v>
+        <v>8.049486391259899</v>
       </c>
       <c r="N5" t="n">
-        <v>-17.04165921802544</v>
+        <v>17.65674773615383</v>
       </c>
       <c r="O5" t="n">
-        <v>1006.583566458489</v>
+        <v>-9.450455428330287</v>
       </c>
       <c r="P5" t="n">
-        <v>-1897.518350209813</v>
+        <v>2.456182282302223</v>
       </c>
       <c r="Q5" t="n">
-        <v>178.7994930543843</v>
+        <v>26.13549720314149</v>
       </c>
       <c r="R5" t="n">
-        <v>-154.2512989484104</v>
+        <v>-7.358363847950172</v>
       </c>
       <c r="S5" t="n">
-        <v>-763.7636059922203</v>
+        <v>-14.46576963466972</v>
       </c>
       <c r="T5" t="n">
-        <v>1673.727328380406</v>
+        <v>-10.59819186655988</v>
       </c>
       <c r="U5" t="n">
-        <v>171.8615338305315</v>
+        <v>-8.936960025897481</v>
       </c>
       <c r="V5" t="n">
-        <v>452.8395151370304</v>
+        <v>-0.5680757528969704</v>
       </c>
       <c r="W5" t="n">
-        <v>-127.6918715356434</v>
+        <v>18.00486291023493</v>
       </c>
       <c r="X5" t="n">
-        <v>141.9034311204587</v>
+        <v>-7.733053363281728</v>
       </c>
       <c r="Y5" t="n">
-        <v>338.1505002084709</v>
+        <v>3.596615912470388</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1714.126795882903</v>
+        <v>-2.201947369119009</v>
       </c>
       <c r="AA5" t="n">
-        <v>22.10882995373782</v>
+        <v>-15.52001367900712</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.4506151403045</v>
+        <v>26.6267687558096</v>
       </c>
       <c r="AC5" t="n">
-        <v>-49.69964727594745</v>
+        <v>16.42061146638039</v>
       </c>
       <c r="AD5" t="n">
-        <v>311.0589727971378</v>
+        <v>-3.190275990444834</v>
       </c>
       <c r="AE5" t="n">
-        <v>88.55807532590084</v>
+        <v>2.38725767619548</v>
       </c>
       <c r="AF5" t="n">
-        <v>70.67710158121859</v>
+        <v>-8.743210477985095</v>
       </c>
       <c r="AG5" t="n">
-        <v>73.47094364579644</v>
+        <v>31.66330082830203</v>
       </c>
     </row>
     <row r="6">
@@ -1017,100 +1017,100 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-659.0191850391778</v>
+        <v>1.652433463981827</v>
       </c>
       <c r="C6" t="n">
-        <v>1135.982285427843</v>
+        <v>24.0976975013128</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.05776731103222</v>
+        <v>-21.00043998988519</v>
       </c>
       <c r="E6" t="n">
-        <v>-796.4428475716885</v>
+        <v>1.701354408287712</v>
       </c>
       <c r="F6" t="n">
-        <v>-195.7105893621066</v>
+        <v>-33.48541208041629</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.429378100329542</v>
+        <v>-40.32860648383385</v>
       </c>
       <c r="H6" t="n">
-        <v>-17.27591789925264</v>
+        <v>-8.346451333599006</v>
       </c>
       <c r="I6" t="n">
-        <v>366.0459784151673</v>
+        <v>9.944817705034005</v>
       </c>
       <c r="J6" t="n">
-        <v>634.6799415407371</v>
+        <v>-5.637293838070345</v>
       </c>
       <c r="K6" t="n">
-        <v>65.03344012545698</v>
+        <v>12.48977669220868</v>
       </c>
       <c r="L6" t="n">
-        <v>48.62631999613793</v>
+        <v>57.59420692611628</v>
       </c>
       <c r="M6" t="n">
-        <v>-79.0191379483142</v>
+        <v>22.25434163423469</v>
       </c>
       <c r="N6" t="n">
-        <v>38.02328443266116</v>
+        <v>-4.838954366227852</v>
       </c>
       <c r="O6" t="n">
-        <v>405.1873729489283</v>
+        <v>-4.79481388259522</v>
       </c>
       <c r="P6" t="n">
-        <v>-1745.699835766463</v>
+        <v>21.63767760790976</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.3509240903713</v>
+        <v>17.79536623003392</v>
       </c>
       <c r="R6" t="n">
-        <v>-164.5184105048932</v>
+        <v>-2.960688764162476</v>
       </c>
       <c r="S6" t="n">
-        <v>-1378.042670668878</v>
+        <v>-5.637417893227783</v>
       </c>
       <c r="T6" t="n">
-        <v>-173.4500346578859</v>
+        <v>-14.01915780270547</v>
       </c>
       <c r="U6" t="n">
-        <v>-21.60385382795501</v>
+        <v>-2.17574314744384</v>
       </c>
       <c r="V6" t="n">
-        <v>290.3647238814082</v>
+        <v>22.19982394613326</v>
       </c>
       <c r="W6" t="n">
-        <v>88.01339860645402</v>
+        <v>4.460814649598922</v>
       </c>
       <c r="X6" t="n">
-        <v>159.4283400850415</v>
+        <v>-23.21525814579351</v>
       </c>
       <c r="Y6" t="n">
-        <v>-493.5237255539108</v>
+        <v>-49.61496445948809</v>
       </c>
       <c r="Z6" t="n">
-        <v>-356.2548737076115</v>
+        <v>-6.651213695056222</v>
       </c>
       <c r="AA6" t="n">
-        <v>-42.68851973948163</v>
+        <v>-9.627009212509924</v>
       </c>
       <c r="AB6" t="n">
-        <v>-195.8375764035685</v>
+        <v>13.25984965143961</v>
       </c>
       <c r="AC6" t="n">
-        <v>-477.0399084448175</v>
+        <v>11.51921560042744</v>
       </c>
       <c r="AD6" t="n">
-        <v>76.42442784489738</v>
+        <v>-31.80812524532987</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.321872564949367</v>
+        <v>19.00668346925661</v>
       </c>
       <c r="AF6" t="n">
-        <v>82.5288256306188</v>
+        <v>-13.12038288646632</v>
       </c>
       <c r="AG6" t="n">
-        <v>115.8938713254152</v>
+        <v>1.421034520209825</v>
       </c>
     </row>
     <row r="7">
@@ -1120,100 +1120,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>641.8015505121846</v>
+        <v>-13.81704741330045</v>
       </c>
       <c r="C7" t="n">
-        <v>-609.8488149850356</v>
+        <v>-5.205207998210929</v>
       </c>
       <c r="D7" t="n">
-        <v>-186.0380014738359</v>
+        <v>4.087073156105261</v>
       </c>
       <c r="E7" t="n">
-        <v>-983.0447267503008</v>
+        <v>3.89968599759504</v>
       </c>
       <c r="F7" t="n">
-        <v>-111.5368529513301</v>
+        <v>1.963055182396805</v>
       </c>
       <c r="G7" t="n">
-        <v>436.8825992225838</v>
+        <v>-3.104741419145695</v>
       </c>
       <c r="H7" t="n">
-        <v>32.57878254625159</v>
+        <v>-7.85596304451534</v>
       </c>
       <c r="I7" t="n">
-        <v>-1940.413062947722</v>
+        <v>-8.736684893985672</v>
       </c>
       <c r="J7" t="n">
-        <v>-915.0454324522231</v>
+        <v>1.404169990482125</v>
       </c>
       <c r="K7" t="n">
-        <v>-298.5639928972812</v>
+        <v>-0.1455577756390619</v>
       </c>
       <c r="L7" t="n">
-        <v>-686.3797058835441</v>
+        <v>3.726093752710249</v>
       </c>
       <c r="M7" t="n">
-        <v>49.1629398143738</v>
+        <v>-12.46456457992115</v>
       </c>
       <c r="N7" t="n">
-        <v>-113.2171556788266</v>
+        <v>15.60200515450292</v>
       </c>
       <c r="O7" t="n">
-        <v>1064.752938165189</v>
+        <v>-2.47320895701356</v>
       </c>
       <c r="P7" t="n">
-        <v>2701.540205817982</v>
+        <v>-10.78904134881167</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.0154638302548</v>
+        <v>-4.254255363364296</v>
       </c>
       <c r="R7" t="n">
-        <v>-85.18557497339447</v>
+        <v>-1.623646578899648</v>
       </c>
       <c r="S7" t="n">
-        <v>-144.0463983451337</v>
+        <v>-7.065308515984528</v>
       </c>
       <c r="T7" t="n">
-        <v>-1095.901858130119</v>
+        <v>16.87176360791161</v>
       </c>
       <c r="U7" t="n">
-        <v>63.6204406744477</v>
+        <v>0.2106370314677822</v>
       </c>
       <c r="V7" t="n">
-        <v>140.2176494259112</v>
+        <v>-1.803659913644577</v>
       </c>
       <c r="W7" t="n">
-        <v>-162.9008046927476</v>
+        <v>9.539204030503885</v>
       </c>
       <c r="X7" t="n">
-        <v>60.41918354786022</v>
+        <v>-15.02819174923663</v>
       </c>
       <c r="Y7" t="n">
-        <v>978.346443014416</v>
+        <v>4.332235062170852</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1409.503129607101</v>
+        <v>-3.156537754626068</v>
       </c>
       <c r="AA7" t="n">
-        <v>434.5062468450967</v>
+        <v>-2.858216831231059</v>
       </c>
       <c r="AB7" t="n">
-        <v>386.1546363307577</v>
+        <v>-13.18593124880881</v>
       </c>
       <c r="AC7" t="n">
-        <v>33.98630757793173</v>
+        <v>6.26409023275829</v>
       </c>
       <c r="AD7" t="n">
-        <v>-444.4027807652669</v>
+        <v>2.055204740993866</v>
       </c>
       <c r="AE7" t="n">
-        <v>156.9600292447794</v>
+        <v>-1.459504126673751</v>
       </c>
       <c r="AF7" t="n">
-        <v>97.00305394191055</v>
+        <v>-20.69912102528405</v>
       </c>
       <c r="AG7" t="n">
-        <v>592.7250530933169</v>
+        <v>14.51249522101048</v>
       </c>
     </row>
     <row r="8">
@@ -1223,100 +1223,100 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>796.4309866137738</v>
+        <v>-13.3479573435504</v>
       </c>
       <c r="C8" t="n">
-        <v>1874.046635437774</v>
+        <v>-4.706695404542927</v>
       </c>
       <c r="D8" t="n">
-        <v>64.39994186406238</v>
+        <v>-4.932155769361867</v>
       </c>
       <c r="E8" t="n">
-        <v>427.4558059328293</v>
+        <v>3.654138177692091</v>
       </c>
       <c r="F8" t="n">
-        <v>273.4942363419469</v>
+        <v>1.594290393291727</v>
       </c>
       <c r="G8" t="n">
-        <v>76.87535584016059</v>
+        <v>-1.469365875326168</v>
       </c>
       <c r="H8" t="n">
-        <v>-55.64439393263598</v>
+        <v>-5.9239400192808</v>
       </c>
       <c r="I8" t="n">
-        <v>1328.487666843956</v>
+        <v>-2.371841898139684</v>
       </c>
       <c r="J8" t="n">
-        <v>833.7142485386291</v>
+        <v>12.09059415441503</v>
       </c>
       <c r="K8" t="n">
-        <v>115.2037542851602</v>
+        <v>-2.699712798421702</v>
       </c>
       <c r="L8" t="n">
-        <v>659.9395372550979</v>
+        <v>22.89131683730534</v>
       </c>
       <c r="M8" t="n">
-        <v>121.7990289328858</v>
+        <v>-11.71828038907211</v>
       </c>
       <c r="N8" t="n">
-        <v>168.4969572556928</v>
+        <v>-7.062661790417293</v>
       </c>
       <c r="O8" t="n">
-        <v>-944.9923453016979</v>
+        <v>2.299119355499485</v>
       </c>
       <c r="P8" t="n">
-        <v>854.2102077531022</v>
+        <v>-0.2252916448584746</v>
       </c>
       <c r="Q8" t="n">
-        <v>-65.67040946376213</v>
+        <v>0.7159679483334418</v>
       </c>
       <c r="R8" t="n">
-        <v>-70.1394869596099</v>
+        <v>-5.345219772176835</v>
       </c>
       <c r="S8" t="n">
-        <v>4152.327545982707</v>
+        <v>0.4473373140444829</v>
       </c>
       <c r="T8" t="n">
-        <v>-84.39315258005517</v>
+        <v>9.760578870593202</v>
       </c>
       <c r="U8" t="n">
-        <v>131.6947463828597</v>
+        <v>-1.536144187565641</v>
       </c>
       <c r="V8" t="n">
-        <v>-92.42408120120558</v>
+        <v>0.9460346150907512</v>
       </c>
       <c r="W8" t="n">
-        <v>-130.2308881931388</v>
+        <v>10.5683017525042</v>
       </c>
       <c r="X8" t="n">
-        <v>-173.6220788140304</v>
+        <v>-15.00300085324086</v>
       </c>
       <c r="Y8" t="n">
-        <v>1011.500004301252</v>
+        <v>-8.474229708356042</v>
       </c>
       <c r="Z8" t="n">
-        <v>-85.00125156494728</v>
+        <v>5.919471694684654</v>
       </c>
       <c r="AA8" t="n">
-        <v>-400.5218100640652</v>
+        <v>-6.594017797113684</v>
       </c>
       <c r="AB8" t="n">
-        <v>76.10152469830749</v>
+        <v>-7.396083179873387</v>
       </c>
       <c r="AC8" t="n">
-        <v>-97.37696984982958</v>
+        <v>7.259547200266843</v>
       </c>
       <c r="AD8" t="n">
-        <v>504.4630485814087</v>
+        <v>1.526587061161556</v>
       </c>
       <c r="AE8" t="n">
-        <v>-105.0933593141851</v>
+        <v>1.744184601366802</v>
       </c>
       <c r="AF8" t="n">
-        <v>145.1828414741829</v>
+        <v>11.19053047413927</v>
       </c>
       <c r="AG8" t="n">
-        <v>483.9922031133935</v>
+        <v>4.205888361821705</v>
       </c>
     </row>
     <row r="9">
@@ -1326,100 +1326,100 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1110.008218097492</v>
+        <v>-26.76020416709427</v>
       </c>
       <c r="C9" t="n">
-        <v>275.6784186422313</v>
+        <v>10.86838196699714</v>
       </c>
       <c r="D9" t="n">
-        <v>-232.6314324811526</v>
+        <v>-0.1952463836756745</v>
       </c>
       <c r="E9" t="n">
-        <v>51.1123693630604</v>
+        <v>5.930376743341893</v>
       </c>
       <c r="F9" t="n">
-        <v>497.171913829098</v>
+        <v>1.854317000167051</v>
       </c>
       <c r="G9" t="n">
-        <v>109.6742178040419</v>
+        <v>0.3288243708452887</v>
       </c>
       <c r="H9" t="n">
-        <v>58.96671227119109</v>
+        <v>5.720487469429704</v>
       </c>
       <c r="I9" t="n">
-        <v>194.2126387293447</v>
+        <v>5.658167668988411</v>
       </c>
       <c r="J9" t="n">
-        <v>-772.2014580979339</v>
+        <v>2.150506860214437</v>
       </c>
       <c r="K9" t="n">
-        <v>-69.60154258070882</v>
+        <v>-21.14279317627489</v>
       </c>
       <c r="L9" t="n">
-        <v>-701.7966216099453</v>
+        <v>-23.23122928235041</v>
       </c>
       <c r="M9" t="n">
-        <v>-124.5167664282756</v>
+        <v>-37.54114031374262</v>
       </c>
       <c r="N9" t="n">
-        <v>-132.3243925216967</v>
+        <v>-9.202205071988704</v>
       </c>
       <c r="O9" t="n">
-        <v>-415.2621981063509</v>
+        <v>2.520424407653626</v>
       </c>
       <c r="P9" t="n">
-        <v>-2658.94345473086</v>
+        <v>-4.859815785981175</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.0366895573515</v>
+        <v>0.7465034786452331</v>
       </c>
       <c r="R9" t="n">
-        <v>49.27067125261902</v>
+        <v>6.510681139001376</v>
       </c>
       <c r="S9" t="n">
-        <v>-6251.710649043463</v>
+        <v>-7.596183282003135</v>
       </c>
       <c r="T9" t="n">
-        <v>-1816.451942218112</v>
+        <v>-1.044750431498689</v>
       </c>
       <c r="U9" t="n">
-        <v>-48.99522820204434</v>
+        <v>1.650953962635123</v>
       </c>
       <c r="V9" t="n">
-        <v>-315.6055870065912</v>
+        <v>2.645331535324117</v>
       </c>
       <c r="W9" t="n">
-        <v>823.4530701494533</v>
+        <v>-4.926919178815364</v>
       </c>
       <c r="X9" t="n">
-        <v>-56.90839084769737</v>
+        <v>10.36368320150987</v>
       </c>
       <c r="Y9" t="n">
-        <v>-442.5441921426664</v>
+        <v>13.22444602593505</v>
       </c>
       <c r="Z9" t="n">
-        <v>339.7222476453495</v>
+        <v>4.743697302484709</v>
       </c>
       <c r="AA9" t="n">
-        <v>-108.6388189872469</v>
+        <v>-0.4587751030980037</v>
       </c>
       <c r="AB9" t="n">
-        <v>265.5660650573332</v>
+        <v>-4.233536606281852</v>
       </c>
       <c r="AC9" t="n">
-        <v>275.8944744051418</v>
+        <v>-8.60193450867248</v>
       </c>
       <c r="AD9" t="n">
-        <v>-150.1395306229895</v>
+        <v>-1.88531426492824</v>
       </c>
       <c r="AE9" t="n">
-        <v>-47.33602289023773</v>
+        <v>10.868779652575</v>
       </c>
       <c r="AF9" t="n">
-        <v>-62.35032620914632</v>
+        <v>10.89082947747464</v>
       </c>
       <c r="AG9" t="n">
-        <v>508.6303431734098</v>
+        <v>6.319410999126511</v>
       </c>
     </row>
   </sheetData>
@@ -1610,100 +1610,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5.095039735814098</v>
+        <v>-22.39624290904441</v>
       </c>
       <c r="C2" t="n">
-        <v>-18.18559609563574</v>
+        <v>-3.658646280272477</v>
       </c>
       <c r="D2" t="n">
-        <v>-44.02420131674459</v>
+        <v>-24.55081416000186</v>
       </c>
       <c r="E2" t="n">
-        <v>5.264361250953995</v>
+        <v>-26.34186993915808</v>
       </c>
       <c r="F2" t="n">
-        <v>-197.652267743154</v>
+        <v>3.921758332548873</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.70788898656803</v>
+        <v>-15.36658690709803</v>
       </c>
       <c r="H2" t="n">
-        <v>-40.73099699522928</v>
+        <v>-4.131136064046162</v>
       </c>
       <c r="I2" t="n">
-        <v>-69.32100048857862</v>
+        <v>-19.11693788576909</v>
       </c>
       <c r="J2" t="n">
-        <v>-98.28013299197949</v>
+        <v>-4.009624572161109</v>
       </c>
       <c r="K2" t="n">
-        <v>-20.60230061655064</v>
+        <v>-3.94036261464809</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.71660156899336</v>
+        <v>-9.767831213057416</v>
       </c>
       <c r="M2" t="n">
-        <v>-23.85955793237441</v>
+        <v>-6.108349280559763</v>
       </c>
       <c r="N2" t="n">
-        <v>-291.6807944062177</v>
+        <v>-15.84557967263193</v>
       </c>
       <c r="O2" t="n">
-        <v>-116.4456722288215</v>
+        <v>4.262899552439311</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.310312796750786</v>
+        <v>-17.08547467737938</v>
       </c>
       <c r="Q2" t="n">
-        <v>-61.84930142632582</v>
+        <v>-5.208728859974193</v>
       </c>
       <c r="R2" t="n">
-        <v>-7.65987030649363</v>
+        <v>-28.01225439513345</v>
       </c>
       <c r="S2" t="n">
-        <v>4.763038473333837</v>
+        <v>3.885515891173286</v>
       </c>
       <c r="T2" t="n">
-        <v>-22.46253175984574</v>
+        <v>-23.76648078318972</v>
       </c>
       <c r="U2" t="n">
-        <v>23.33071540776555</v>
+        <v>-22.41861223626831</v>
       </c>
       <c r="V2" t="n">
-        <v>7.453230995157701</v>
+        <v>-16.63804099216476</v>
       </c>
       <c r="W2" t="n">
-        <v>-167.7887569763012</v>
+        <v>-10.32071134357458</v>
       </c>
       <c r="X2" t="n">
-        <v>-26.83054048114114</v>
+        <v>-25.06195089919765</v>
       </c>
       <c r="Y2" t="n">
-        <v>-65.73193219180361</v>
+        <v>-26.84707542208588</v>
       </c>
       <c r="Z2" t="n">
-        <v>-5.470633308924748</v>
+        <v>-25.23224255245778</v>
       </c>
       <c r="AA2" t="n">
-        <v>-3.801699824983864</v>
+        <v>-24.94790800333909</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.37592738247851</v>
+        <v>2.225190519397547</v>
       </c>
       <c r="AC2" t="n">
-        <v>-586.1241686050002</v>
+        <v>-23.78713756129989</v>
       </c>
       <c r="AD2" t="n">
-        <v>-65.35087105351427</v>
+        <v>-25.34003356125352</v>
       </c>
       <c r="AE2" t="n">
-        <v>-40.30619754466566</v>
+        <v>4.756847346023268</v>
       </c>
       <c r="AF2" t="n">
-        <v>-33.63258202427122</v>
+        <v>-3.46716127139026</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.6666317002836</v>
+        <v>-28.95591962465077</v>
       </c>
     </row>
     <row r="3">
@@ -1713,100 +1713,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3146073382503991</v>
+        <v>-9.478265819501086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.489444721768691</v>
+        <v>-0.3487867863791636</v>
       </c>
       <c r="D3" t="n">
-        <v>-15.97285888575854</v>
+        <v>-10.61712604867909</v>
       </c>
       <c r="E3" t="n">
-        <v>2.334994142148707</v>
+        <v>-10.47131443509565</v>
       </c>
       <c r="F3" t="n">
-        <v>-135.7757991586379</v>
+        <v>-3.708211079273953</v>
       </c>
       <c r="G3" t="n">
-        <v>1.120572956320974</v>
+        <v>-0.09466724603556</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.686018244345354</v>
+        <v>-0.5531660126233765</v>
       </c>
       <c r="I3" t="n">
-        <v>-12.67590947663783</v>
+        <v>-0.4009146530548924</v>
       </c>
       <c r="J3" t="n">
-        <v>-54.74517003210318</v>
+        <v>-1.828956799727621</v>
       </c>
       <c r="K3" t="n">
-        <v>2.56493528060866</v>
+        <v>-0.7915813086635696</v>
       </c>
       <c r="L3" t="n">
-        <v>-11.80440706383767</v>
+        <v>-4.26946004176925</v>
       </c>
       <c r="M3" t="n">
-        <v>-16.42409022440478</v>
+        <v>-4.961881974407738</v>
       </c>
       <c r="N3" t="n">
-        <v>-168.8128876407292</v>
+        <v>0.6449105537654605</v>
       </c>
       <c r="O3" t="n">
-        <v>-127.3822599341784</v>
+        <v>0.6749392468757625</v>
       </c>
       <c r="P3" t="n">
-        <v>-6.886389489830774</v>
+        <v>-5.811863374645544</v>
       </c>
       <c r="Q3" t="n">
-        <v>-17.14689786144935</v>
+        <v>-1.353851703493438</v>
       </c>
       <c r="R3" t="n">
-        <v>-5.299079580757562</v>
+        <v>-12.68765534253655</v>
       </c>
       <c r="S3" t="n">
-        <v>6.584852322424671</v>
+        <v>-1.811481761296315</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04018727496200464</v>
+        <v>-12.79579947962454</v>
       </c>
       <c r="U3" t="n">
-        <v>-1.734528447534526</v>
+        <v>-3.942585162057056</v>
       </c>
       <c r="V3" t="n">
-        <v>2.433824946332544</v>
+        <v>-12.0793615677293</v>
       </c>
       <c r="W3" t="n">
-        <v>-64.59739877375092</v>
+        <v>0.7709512419089571</v>
       </c>
       <c r="X3" t="n">
-        <v>-9.479082850180079</v>
+        <v>-10.37191960203693</v>
       </c>
       <c r="Y3" t="n">
-        <v>-22.54309228994666</v>
+        <v>-17.15038992858381</v>
       </c>
       <c r="Z3" t="n">
-        <v>-3.343450808723937</v>
+        <v>-20.54790354219571</v>
       </c>
       <c r="AA3" t="n">
-        <v>-1.045420482223325</v>
+        <v>-6.852447555652827</v>
       </c>
       <c r="AB3" t="n">
-        <v>-3.177894685338833</v>
+        <v>-1.164677402621539</v>
       </c>
       <c r="AC3" t="n">
-        <v>-775.8304703437473</v>
+        <v>-12.97944585367526</v>
       </c>
       <c r="AD3" t="n">
-        <v>-17.20257360928017</v>
+        <v>-10.15507277259384</v>
       </c>
       <c r="AE3" t="n">
-        <v>-16.70185367261934</v>
+        <v>11.09555874550015</v>
       </c>
       <c r="AF3" t="n">
-        <v>-17.84243171864041</v>
+        <v>0.6394081770049019</v>
       </c>
       <c r="AG3" t="n">
-        <v>-2.796860643518729</v>
+        <v>-19.36204050817414</v>
       </c>
     </row>
     <row r="4">
@@ -1816,100 +1816,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4.246783624166807</v>
+        <v>-1.043583924494446</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.91276356061835</v>
+        <v>0.5734010931625103</v>
       </c>
       <c r="D4" t="n">
-        <v>-41.69218355113524</v>
+        <v>4.224199547103492</v>
       </c>
       <c r="E4" t="n">
-        <v>5.079338275210461</v>
+        <v>0.5964706529686334</v>
       </c>
       <c r="F4" t="n">
-        <v>-88.57446534859514</v>
+        <v>-5.452785821133336</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.65474414072544</v>
+        <v>-9.164836267721725</v>
       </c>
       <c r="H4" t="n">
-        <v>-37.34331800228004</v>
+        <v>-0.2065424789540976</v>
       </c>
       <c r="I4" t="n">
-        <v>5.834220093115502</v>
+        <v>-5.255148970455644</v>
       </c>
       <c r="J4" t="n">
-        <v>-94.71569734643285</v>
+        <v>0.01581244380028727</v>
       </c>
       <c r="K4" t="n">
-        <v>-23.87126421463307</v>
+        <v>0.7458501914042933</v>
       </c>
       <c r="L4" t="n">
-        <v>-17.9072304165931</v>
+        <v>-3.045930634882716</v>
       </c>
       <c r="M4" t="n">
-        <v>-12.08426777419536</v>
+        <v>-4.732662425456416</v>
       </c>
       <c r="N4" t="n">
-        <v>-256.222314684296</v>
+        <v>0.826496399531493</v>
       </c>
       <c r="O4" t="n">
-        <v>-87.07032909501713</v>
+        <v>0.1556403326089192</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.744841696880878</v>
+        <v>-4.299450006162542</v>
       </c>
       <c r="Q4" t="n">
-        <v>-19.54403179404093</v>
+        <v>0.223668251521843</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.867423172819807</v>
+        <v>9.402672202312504</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1485380965127988</v>
+        <v>1.832334417152806</v>
       </c>
       <c r="T4" t="n">
-        <v>-5.089609474486197</v>
+        <v>9.000301482535974</v>
       </c>
       <c r="U4" t="n">
-        <v>19.94540062422034</v>
+        <v>3.559566982731916</v>
       </c>
       <c r="V4" t="n">
-        <v>-3.356540931428056</v>
+        <v>-0.7696394940148658</v>
       </c>
       <c r="W4" t="n">
-        <v>-171.049176456989</v>
+        <v>4.193910248989095</v>
       </c>
       <c r="X4" t="n">
-        <v>-12.68868662306459</v>
+        <v>4.019271193841321</v>
       </c>
       <c r="Y4" t="n">
-        <v>-26.56387341871774</v>
+        <v>10.08442230415156</v>
       </c>
       <c r="Z4" t="n">
-        <v>-2.792748801169084</v>
+        <v>12.11410366113827</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3008581217034517</v>
+        <v>7.49033464386805</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.28197641857397</v>
+        <v>-0.1576717971504416</v>
       </c>
       <c r="AC4" t="n">
-        <v>-321.1085414740795</v>
+        <v>12.77670474869568</v>
       </c>
       <c r="AD4" t="n">
-        <v>-30.56046181467215</v>
+        <v>5.925016013568857</v>
       </c>
       <c r="AE4" t="n">
-        <v>-53.5607114454355</v>
+        <v>6.853897834837018</v>
       </c>
       <c r="AF4" t="n">
-        <v>-12.49130513892639</v>
+        <v>-1.402115243567428</v>
       </c>
       <c r="AG4" t="n">
-        <v>-3.22509323771993</v>
+        <v>10.38031953137743</v>
       </c>
     </row>
     <row r="5">
@@ -1919,100 +1919,100 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.62395425713019</v>
+        <v>-10.38607364524749</v>
       </c>
       <c r="C5" t="n">
-        <v>3.583677772980194</v>
+        <v>-1.182458443673692</v>
       </c>
       <c r="D5" t="n">
-        <v>20.36343350814187</v>
+        <v>-3.709110599528332</v>
       </c>
       <c r="E5" t="n">
-        <v>5.495978900500529</v>
+        <v>-7.742110316929181</v>
       </c>
       <c r="F5" t="n">
-        <v>22.30863678862444</v>
+        <v>-9.139041818645248</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.947548232268409</v>
+        <v>-5.911594607589558</v>
       </c>
       <c r="H5" t="n">
-        <v>8.037476213832926</v>
+        <v>-0.1923378156659189</v>
       </c>
       <c r="I5" t="n">
-        <v>-12.73136221718217</v>
+        <v>-6.61468885277813</v>
       </c>
       <c r="J5" t="n">
-        <v>48.30624890490756</v>
+        <v>-0.1423094992762249</v>
       </c>
       <c r="K5" t="n">
-        <v>2.269902931773047</v>
+        <v>-0.9200524679851569</v>
       </c>
       <c r="L5" t="n">
-        <v>4.860512773837206</v>
+        <v>-3.47012409439313</v>
       </c>
       <c r="M5" t="n">
-        <v>-8.878093194643904</v>
+        <v>-1.864258812596717</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.900738291954219</v>
+        <v>-5.322470625519722</v>
       </c>
       <c r="O5" t="n">
-        <v>16.25243114798641</v>
+        <v>0.9014087805044446</v>
       </c>
       <c r="P5" t="n">
-        <v>-4.169324744935405</v>
+        <v>-1.985870951484521</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.60841279881134</v>
+        <v>0.7067437259145107</v>
       </c>
       <c r="R5" t="n">
-        <v>-5.11608457767235</v>
+        <v>-5.534420394158142</v>
       </c>
       <c r="S5" t="n">
-        <v>8.10827879315611</v>
+        <v>3.18079765734078</v>
       </c>
       <c r="T5" t="n">
-        <v>-6.9308557390686</v>
+        <v>-3.666263009497601</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.73609470152193</v>
+        <v>-10.61201777140152</v>
       </c>
       <c r="V5" t="n">
-        <v>4.125212626158464</v>
+        <v>-7.171982673722865</v>
       </c>
       <c r="W5" t="n">
-        <v>55.01165799112572</v>
+        <v>-0.642641132230847</v>
       </c>
       <c r="X5" t="n">
-        <v>-19.20190913258277</v>
+        <v>-5.032182535852606</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.35154792482178</v>
+        <v>-6.520029008074169</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.453019090133646</v>
+        <v>0.9464329579618307</v>
       </c>
       <c r="AA5" t="n">
-        <v>-3.636976045348477</v>
+        <v>-0.922606783527018</v>
       </c>
       <c r="AB5" t="n">
-        <v>-3.051322452546963</v>
+        <v>3.969885564881184</v>
       </c>
       <c r="AC5" t="n">
-        <v>-45.30190058388405</v>
+        <v>-4.484074566290152</v>
       </c>
       <c r="AD5" t="n">
-        <v>17.19806072276539</v>
+        <v>-8.04737474728835</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.355370186621214</v>
+        <v>0.8827402416224076</v>
       </c>
       <c r="AF5" t="n">
-        <v>-2.547957782583076</v>
+        <v>-0.246034598027123</v>
       </c>
       <c r="AG5" t="n">
-        <v>-2.499716043934497</v>
+        <v>-4.446698326823315</v>
       </c>
     </row>
     <row r="6">
@@ -2022,100 +2022,100 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.593895083295</v>
+        <v>3.68425511729409</v>
       </c>
       <c r="C6" t="n">
-        <v>2.584650705456326</v>
+        <v>1.492119357626834</v>
       </c>
       <c r="D6" t="n">
-        <v>-12.73231234859119</v>
+        <v>2.975046951129554</v>
       </c>
       <c r="E6" t="n">
-        <v>6.580568787227365</v>
+        <v>11.16918286468782</v>
       </c>
       <c r="F6" t="n">
-        <v>-45.05430762096649</v>
+        <v>-5.413272746059674</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.543378158582883</v>
+        <v>-5.173360103870613</v>
       </c>
       <c r="H6" t="n">
-        <v>3.428874044164854</v>
+        <v>-0.09062688489054661</v>
       </c>
       <c r="I6" t="n">
-        <v>-44.71701165639818</v>
+        <v>4.505919790706188</v>
       </c>
       <c r="J6" t="n">
-        <v>-27.1676432737765</v>
+        <v>0.5771608356914885</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8656374528785522</v>
+        <v>1.449404860273614</v>
       </c>
       <c r="L6" t="n">
-        <v>2.268071458020958</v>
+        <v>2.244036888815236</v>
       </c>
       <c r="M6" t="n">
-        <v>7.011176763036299</v>
+        <v>4.140899273144983</v>
       </c>
       <c r="N6" t="n">
-        <v>85.20518899598068</v>
+        <v>9.53453885797013</v>
       </c>
       <c r="O6" t="n">
-        <v>24.54827456823935</v>
+        <v>-3.268784039670833</v>
       </c>
       <c r="P6" t="n">
-        <v>-4.646812877140385</v>
+        <v>1.03750329193351</v>
       </c>
       <c r="Q6" t="n">
-        <v>-22.32798389869876</v>
+        <v>1.364232073102024</v>
       </c>
       <c r="R6" t="n">
-        <v>-4.615017077310016</v>
+        <v>0.2317091718628472</v>
       </c>
       <c r="S6" t="n">
-        <v>7.582306934414269</v>
+        <v>-1.577516275652661</v>
       </c>
       <c r="T6" t="n">
-        <v>-2.045372111224091</v>
+        <v>9.618991074546505</v>
       </c>
       <c r="U6" t="n">
-        <v>-6.809351856364155</v>
+        <v>5.867081908145089</v>
       </c>
       <c r="V6" t="n">
-        <v>3.438737191764333</v>
+        <v>-2.714891143084952</v>
       </c>
       <c r="W6" t="n">
-        <v>41.3637362387248</v>
+        <v>4.084131375629521</v>
       </c>
       <c r="X6" t="n">
-        <v>-15.42404177866105</v>
+        <v>14.53316871449109</v>
       </c>
       <c r="Y6" t="n">
-        <v>-16.79428816967387</v>
+        <v>8.437377470534152</v>
       </c>
       <c r="Z6" t="n">
-        <v>-2.739704222552168</v>
+        <v>12.40019337054183</v>
       </c>
       <c r="AA6" t="n">
-        <v>-2.098314305523429</v>
+        <v>1.970103348496652</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.915569710027657</v>
+        <v>-1.150272753545171</v>
       </c>
       <c r="AC6" t="n">
-        <v>36.03655966226094</v>
+        <v>13.10649406193182</v>
       </c>
       <c r="AD6" t="n">
-        <v>-9.858057442364551</v>
+        <v>10.33775697574319</v>
       </c>
       <c r="AE6" t="n">
-        <v>-19.36941601396586</v>
+        <v>5.942760138583344</v>
       </c>
       <c r="AF6" t="n">
-        <v>-11.77470692569615</v>
+        <v>-0.1524104539803138</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.9409753439651664</v>
+        <v>7.21461052341683</v>
       </c>
     </row>
     <row r="7">
@@ -2125,100 +2125,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4826277328204442</v>
+        <v>5.779742882590413</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.21111641026184</v>
+        <v>-0.7281619302947049</v>
       </c>
       <c r="D7" t="n">
-        <v>-15.24244125878043</v>
+        <v>-9.518324361339101</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1039323633873496</v>
+        <v>1.053329593088735</v>
       </c>
       <c r="F7" t="n">
-        <v>-207.2554159479045</v>
+        <v>9.433588208210475</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5593309080976179</v>
+        <v>2.644414521105222</v>
       </c>
       <c r="H7" t="n">
-        <v>-20.9665437651709</v>
+        <v>-1.335972846712531</v>
       </c>
       <c r="I7" t="n">
-        <v>-45.12282266308186</v>
+        <v>-1.026517057349039</v>
       </c>
       <c r="J7" t="n">
-        <v>-80.48214953090512</v>
+        <v>-0.9935383530613909</v>
       </c>
       <c r="K7" t="n">
-        <v>-17.20656500038222</v>
+        <v>-1.001413939830702</v>
       </c>
       <c r="L7" t="n">
-        <v>-10.99453881562934</v>
+        <v>-0.07336342533320959</v>
       </c>
       <c r="M7" t="n">
-        <v>-14.26010551496013</v>
+        <v>16.14461737620245</v>
       </c>
       <c r="N7" t="n">
-        <v>-244.2097248624469</v>
+        <v>3.314971696430024</v>
       </c>
       <c r="O7" t="n">
-        <v>-88.63977516270471</v>
+        <v>1.461228764005943</v>
       </c>
       <c r="P7" t="n">
-        <v>-4.012867933972768</v>
+        <v>-3.909250910720713</v>
       </c>
       <c r="Q7" t="n">
-        <v>-13.09735534441736</v>
+        <v>-1.546339044999807</v>
       </c>
       <c r="R7" t="n">
-        <v>-5.482834832969329</v>
+        <v>-10.59743297759255</v>
       </c>
       <c r="S7" t="n">
-        <v>5.62674940327495</v>
+        <v>-5.171676993353243</v>
       </c>
       <c r="T7" t="n">
-        <v>-4.032115494422814</v>
+        <v>1.203657757631479</v>
       </c>
       <c r="U7" t="n">
-        <v>10.82035381896638</v>
+        <v>6.409637011410152</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33286041495223</v>
+        <v>7.791503591211329</v>
       </c>
       <c r="W7" t="n">
-        <v>-120.3766435394721</v>
+        <v>22.17977467583178</v>
       </c>
       <c r="X7" t="n">
-        <v>-4.125142076781558</v>
+        <v>-5.195411079364413</v>
       </c>
       <c r="Y7" t="n">
-        <v>-19.79848713396369</v>
+        <v>-5.14596266439174</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1.831561551030055</v>
+        <v>-1.829566898948952</v>
       </c>
       <c r="AA7" t="n">
-        <v>-2.259552621705121</v>
+        <v>-7.334860068685269</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.655965488348549</v>
+        <v>-3.895620578204464</v>
       </c>
       <c r="AC7" t="n">
-        <v>-510.8149979387236</v>
+        <v>-11.29179290405309</v>
       </c>
       <c r="AD7" t="n">
-        <v>-51.0937717653972</v>
+        <v>-14.35567725143353</v>
       </c>
       <c r="AE7" t="n">
-        <v>-18.98478801472092</v>
+        <v>24.54354170088887</v>
       </c>
       <c r="AF7" t="n">
-        <v>-29.04700245985223</v>
+        <v>0.1211125964156553</v>
       </c>
       <c r="AG7" t="n">
-        <v>-2.350004776033332</v>
+        <v>-11.48905781761509</v>
       </c>
     </row>
     <row r="8">
@@ -2228,100 +2228,100 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3957456256397353</v>
+        <v>-12.40407918235864</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.581797114236528</v>
+        <v>-0.5284167297638398</v>
       </c>
       <c r="D8" t="n">
-        <v>9.235885523636393</v>
+        <v>-1.120868297559841</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0009764880123373337</v>
+        <v>-10.32027924826254</v>
       </c>
       <c r="F8" t="n">
-        <v>-90.49797887065509</v>
+        <v>-2.021078539849017</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.760010672713333</v>
+        <v>-6.934789049238085</v>
       </c>
       <c r="H8" t="n">
-        <v>9.732274560088641</v>
+        <v>0.9398913907933724</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7364158884961068</v>
+        <v>0.4833230421471216</v>
       </c>
       <c r="J8" t="n">
-        <v>22.18231591273295</v>
+        <v>0.1914880157420037</v>
       </c>
       <c r="K8" t="n">
-        <v>-13.68371259523034</v>
+        <v>0.9780050451533356</v>
       </c>
       <c r="L8" t="n">
-        <v>3.526256442096639</v>
+        <v>-7.618739419063908</v>
       </c>
       <c r="M8" t="n">
-        <v>-11.41377053194804</v>
+        <v>-7.782061524091218</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.25606172967273</v>
+        <v>-6.780705480038918</v>
       </c>
       <c r="O8" t="n">
-        <v>30.56566101310161</v>
+        <v>1.876718383691877</v>
       </c>
       <c r="P8" t="n">
-        <v>-4.357515277788187</v>
+        <v>-4.567685189901168</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.98846439726107</v>
+        <v>0.199908496891165</v>
       </c>
       <c r="R8" t="n">
-        <v>-3.315766854743588</v>
+        <v>-5.304943855661511</v>
       </c>
       <c r="S8" t="n">
-        <v>6.518619345439443</v>
+        <v>1.780672394358683</v>
       </c>
       <c r="T8" t="n">
-        <v>-8.753353423198558</v>
+        <v>-14.29792724329255</v>
       </c>
       <c r="U8" t="n">
-        <v>7.497673907334975</v>
+        <v>-9.310757131448671</v>
       </c>
       <c r="V8" t="n">
-        <v>2.226711929031967</v>
+        <v>-14.22874868914731</v>
       </c>
       <c r="W8" t="n">
-        <v>-13.907422637722</v>
+        <v>-5.837151686264903</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.8029154262464221</v>
+        <v>-8.697430368963429</v>
       </c>
       <c r="Y8" t="n">
-        <v>-16.97444757559834</v>
+        <v>-4.477448755139579</v>
       </c>
       <c r="Z8" t="n">
-        <v>-2.805068859442895</v>
+        <v>-5.520216607506724</v>
       </c>
       <c r="AA8" t="n">
-        <v>-2.291781925517606</v>
+        <v>-9.481310922236343</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.996429015789126</v>
+        <v>2.826591850400348</v>
       </c>
       <c r="AC8" t="n">
-        <v>96.25417737959282</v>
+        <v>-3.829656352094698</v>
       </c>
       <c r="AD8" t="n">
-        <v>-3.48134539618454</v>
+        <v>-14.70396510439026</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.99049445389525</v>
+        <v>1.072980956018803</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.31185337357094</v>
+        <v>0.1930116243761456</v>
       </c>
       <c r="AG8" t="n">
-        <v>-2.396774323508265</v>
+        <v>-4.502762722940742</v>
       </c>
     </row>
     <row r="9">
@@ -2331,100 +2331,100 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4963513459364194</v>
+        <v>11.02357011837985</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.579788356819615</v>
+        <v>-1.021356927893271</v>
       </c>
       <c r="D9" t="n">
-        <v>-23.25863475598237</v>
+        <v>1.922967623444245</v>
       </c>
       <c r="E9" t="n">
-        <v>0.151925924030102</v>
+        <v>6.372776345809045</v>
       </c>
       <c r="F9" t="n">
-        <v>197.983432484074</v>
+        <v>-1.394656023162788</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6106988851797497</v>
+        <v>2.578938118546151</v>
       </c>
       <c r="H9" t="n">
-        <v>-19.98015587774525</v>
+        <v>0.4120410361230856</v>
       </c>
       <c r="I9" t="n">
-        <v>-16.69211249461595</v>
+        <v>-1.972169625907517</v>
       </c>
       <c r="J9" t="n">
-        <v>23.36043571195209</v>
+        <v>-0.8471918981071851</v>
       </c>
       <c r="K9" t="n">
-        <v>-12.90356767343886</v>
+        <v>-0.661318536686781</v>
       </c>
       <c r="L9" t="n">
-        <v>-8.127682562235526</v>
+        <v>-3.977773786080905</v>
       </c>
       <c r="M9" t="n">
-        <v>1.871809354254664</v>
+        <v>6.180232186693781</v>
       </c>
       <c r="N9" t="n">
-        <v>76.40628806886154</v>
+        <v>6.036253258631603</v>
       </c>
       <c r="O9" t="n">
-        <v>65.56836380162882</v>
+        <v>-0.2108327721384945</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.561128862462692</v>
+        <v>1.957717392034921</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.23479035276436</v>
+        <v>0.9127451038916877</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.862936862082742</v>
+        <v>1.38238685188097</v>
       </c>
       <c r="S9" t="n">
-        <v>5.427841878189175</v>
+        <v>1.618164033512549</v>
       </c>
       <c r="T9" t="n">
-        <v>4.105586526699832</v>
+        <v>2.235945219410583</v>
       </c>
       <c r="U9" t="n">
-        <v>10.88858974124558</v>
+        <v>10.71303441825868</v>
       </c>
       <c r="V9" t="n">
-        <v>5.180449828634114</v>
+        <v>-6.623974776468583</v>
       </c>
       <c r="W9" t="n">
-        <v>50.37644304072917</v>
+        <v>4.976029966771118</v>
       </c>
       <c r="X9" t="n">
-        <v>-16.78490442888114</v>
+        <v>1.283083508925618</v>
       </c>
       <c r="Y9" t="n">
-        <v>-30.14189314010413</v>
+        <v>4.41429886612246</v>
       </c>
       <c r="Z9" t="n">
-        <v>-1.460548240780487</v>
+        <v>1.967431010064902</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.225191699756937</v>
+        <v>1.14877292628128</v>
       </c>
       <c r="AB9" t="n">
-        <v>-1.733061881061475</v>
+        <v>0.3882563190361275</v>
       </c>
       <c r="AC9" t="n">
-        <v>750.5178676388972</v>
+        <v>-0.2952427469832634</v>
       </c>
       <c r="AD9" t="n">
-        <v>-20.3425839821736</v>
+        <v>6.803582164492032</v>
       </c>
       <c r="AE9" t="n">
-        <v>-22.18406621647224</v>
+        <v>5.664248598026751</v>
       </c>
       <c r="AF9" t="n">
-        <v>-16.46506239454233</v>
+        <v>-1.180194525107331</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.1476729139086708</v>
+        <v>-0.963757483234847</v>
       </c>
     </row>
     <row r="10">
@@ -2434,100 +2434,100 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.046606176175825</v>
+        <v>9.038494443345858</v>
       </c>
       <c r="C10" t="n">
-        <v>-14.14917117045556</v>
+        <v>0.1310736816425573</v>
       </c>
       <c r="D10" t="n">
-        <v>-66.61947530425175</v>
+        <v>5.995679483332451</v>
       </c>
       <c r="E10" t="n">
-        <v>4.831853641543439</v>
+        <v>10.54756065282111</v>
       </c>
       <c r="F10" t="n">
-        <v>-137.5929666462652</v>
+        <v>-5.833087434137106</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.239381920219334</v>
+        <v>0.7300710579515918</v>
       </c>
       <c r="H10" t="n">
-        <v>-24.37823961836168</v>
+        <v>-0.6742389456898729</v>
       </c>
       <c r="I10" t="n">
-        <v>-57.09882556688083</v>
+        <v>5.438065026902235</v>
       </c>
       <c r="J10" t="n">
-        <v>-97.79115849772501</v>
+        <v>-0.1798270559119144</v>
       </c>
       <c r="K10" t="n">
-        <v>-7.549924896153356</v>
+        <v>0.5996258728040048</v>
       </c>
       <c r="L10" t="n">
-        <v>-16.23461103214875</v>
+        <v>1.290698622378383</v>
       </c>
       <c r="M10" t="n">
-        <v>-32.0667764389254</v>
+        <v>-2.279768502210438</v>
       </c>
       <c r="N10" t="n">
-        <v>-306.2915058393399</v>
+        <v>-0.9507745752314828</v>
       </c>
       <c r="O10" t="n">
-        <v>-99.02599279868905</v>
+        <v>-4.159518008281477</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.724284911152273</v>
+        <v>1.839648472584604</v>
       </c>
       <c r="Q10" t="n">
-        <v>-42.23333951201558</v>
+        <v>0.2299328688512783</v>
       </c>
       <c r="R10" t="n">
-        <v>-2.42524872123807</v>
+        <v>9.173293442135448</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6863319667588877</v>
+        <v>-1.955816017705724</v>
       </c>
       <c r="T10" t="n">
-        <v>-3.215751544414197</v>
+        <v>5.532813839052265</v>
       </c>
       <c r="U10" t="n">
-        <v>23.17306984046431</v>
+        <v>11.48314435453829</v>
       </c>
       <c r="V10" t="n">
-        <v>8.391613315646396</v>
+        <v>0.6652159746076229</v>
       </c>
       <c r="W10" t="n">
-        <v>-170.7855813222983</v>
+        <v>7.202684716738193</v>
       </c>
       <c r="X10" t="n">
-        <v>-27.49623493926326</v>
+        <v>22.59034536366377</v>
       </c>
       <c r="Y10" t="n">
-        <v>-101.2887097097662</v>
+        <v>3.793003931321332</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1.390072001009065</v>
+        <v>5.608416617029175</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.7992148004739476</v>
+        <v>4.800928725030979</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.850341058709213</v>
+        <v>-0.1693838706380248</v>
       </c>
       <c r="AC10" t="n">
-        <v>-579.829581359924</v>
+        <v>20.72013752658078</v>
       </c>
       <c r="AD10" t="n">
-        <v>-70.37868124770453</v>
+        <v>6.992602509845864</v>
       </c>
       <c r="AE10" t="n">
-        <v>-27.07402002329157</v>
+        <v>4.736811631281713</v>
       </c>
       <c r="AF10" t="n">
-        <v>-27.08273914537893</v>
+        <v>-1.546930295904997</v>
       </c>
       <c r="AG10" t="n">
-        <v>-2.549978969242941</v>
+        <v>20.62923435917628</v>
       </c>
     </row>
     <row r="11">
@@ -2537,100 +2537,100 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.7720990782393133</v>
+        <v>-16.24357003340819</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.026767496783703</v>
+        <v>-1.390350940594806</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.405155244182154</v>
+        <v>-5.334249444502578</v>
       </c>
       <c r="E11" t="n">
-        <v>3.122106364838124</v>
+        <v>-9.863325223628616</v>
       </c>
       <c r="F11" t="n">
-        <v>68.72814640468525</v>
+        <v>-8.906662921227001</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1127371466374125</v>
+        <v>-11.37282072254694</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2268256263999853</v>
+        <v>-1.140260760746996</v>
       </c>
       <c r="I11" t="n">
-        <v>-22.87773972396826</v>
+        <v>-8.11150415497989</v>
       </c>
       <c r="J11" t="n">
-        <v>-40.21046151628351</v>
+        <v>-1.814696342779626</v>
       </c>
       <c r="K11" t="n">
-        <v>4.723715083781105</v>
+        <v>-1.084620640430523</v>
       </c>
       <c r="L11" t="n">
-        <v>-4.533248555795919</v>
+        <v>-6.965069394315852</v>
       </c>
       <c r="M11" t="n">
-        <v>-5.20987921367354</v>
+        <v>-19.22364142793695</v>
       </c>
       <c r="N11" t="n">
-        <v>19.39476717966308</v>
+        <v>-13.20959950199035</v>
       </c>
       <c r="O11" t="n">
-        <v>-40.25190134715622</v>
+        <v>0.6872649712781651</v>
       </c>
       <c r="P11" t="n">
-        <v>-5.595039333965649</v>
+        <v>-11.89674940273114</v>
       </c>
       <c r="Q11" t="n">
-        <v>-29.85823560811115</v>
+        <v>-3.82240435461387</v>
       </c>
       <c r="R11" t="n">
-        <v>-3.664667608104893</v>
+        <v>-3.375410009986463</v>
       </c>
       <c r="S11" t="n">
-        <v>6.601377793564814</v>
+        <v>3.957396463804991</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.644677725298905</v>
+        <v>-12.70440400400281</v>
       </c>
       <c r="U11" t="n">
-        <v>3.4521752385482</v>
+        <v>-17.76959011119356</v>
       </c>
       <c r="V11" t="n">
-        <v>3.626002139791105</v>
+        <v>-16.39421537398501</v>
       </c>
       <c r="W11" t="n">
-        <v>43.66148335860427</v>
+        <v>-16.54534820407243</v>
       </c>
       <c r="X11" t="n">
-        <v>-2.325798064865295</v>
+        <v>-10.45200185713017</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.96148789762961</v>
+        <v>-7.633551353317618</v>
       </c>
       <c r="Z11" t="n">
-        <v>-2.368847303614859</v>
+        <v>-6.927071008997563</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.8444880497120103</v>
+        <v>-6.946076546084043</v>
       </c>
       <c r="AB11" t="n">
-        <v>4.519557704014313</v>
+        <v>1.991924612727605</v>
       </c>
       <c r="AC11" t="n">
-        <v>454.5873225413417</v>
+        <v>-3.261189390714698</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.849258271665308</v>
+        <v>-8.188017235575085</v>
       </c>
       <c r="AE11" t="n">
-        <v>-17.23824160755483</v>
+        <v>-25.0982180643806</v>
       </c>
       <c r="AF11" t="n">
-        <v>-18.80075826956804</v>
+        <v>-1.319458822697584</v>
       </c>
       <c r="AG11" t="n">
-        <v>-1.390196107443651</v>
+        <v>-4.850698318218664</v>
       </c>
     </row>
     <row r="12">
@@ -2640,100 +2640,100 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.020041706316811</v>
+        <v>-5.883928071045981</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.852549346508603</v>
+        <v>-2.087024201920125</v>
       </c>
       <c r="D12" t="n">
-        <v>21.71318867248749</v>
+        <v>-10.20139688509784</v>
       </c>
       <c r="E12" t="n">
-        <v>2.338196080191315</v>
+        <v>-15.2076303248559</v>
       </c>
       <c r="F12" t="n">
-        <v>-75.77046566694661</v>
+        <v>7.648111018330001</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07354066385001069</v>
+        <v>-11.3860428058651</v>
       </c>
       <c r="H12" t="n">
-        <v>15.06373103441251</v>
+        <v>-3.317675846827238</v>
       </c>
       <c r="I12" t="n">
-        <v>23.42285966419208</v>
+        <v>-15.51108800106886</v>
       </c>
       <c r="J12" t="n">
-        <v>37.41360311033493</v>
+        <v>-3.109504126452004</v>
       </c>
       <c r="K12" t="n">
-        <v>1.429948191521083</v>
+        <v>-2.719348319286873</v>
       </c>
       <c r="L12" t="n">
-        <v>11.05813087985024</v>
+        <v>-5.373233629137724</v>
       </c>
       <c r="M12" t="n">
-        <v>-5.561918222865454</v>
+        <v>-7.602737777527244</v>
       </c>
       <c r="N12" t="n">
-        <v>-196.44908096612</v>
+        <v>-16.03233598966855</v>
       </c>
       <c r="O12" t="n">
-        <v>1.008532142810683</v>
+        <v>2.501543414642585</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.302127489091413</v>
+        <v>-10.67873478377767</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.69103052136623</v>
+        <v>-3.337825920054807</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06917444484507378</v>
+        <v>-9.524572882119925</v>
       </c>
       <c r="S12" t="n">
-        <v>6.730910927437746</v>
+        <v>0.1320822318584194</v>
       </c>
       <c r="T12" t="n">
-        <v>-9.158316269287134</v>
+        <v>-5.927778485294459</v>
       </c>
       <c r="U12" t="n">
-        <v>-3.030234626529395</v>
+        <v>-21.64862918370938</v>
       </c>
       <c r="V12" t="n">
-        <v>5.114196530949279</v>
+        <v>-8.167115672760902</v>
       </c>
       <c r="W12" t="n">
-        <v>36.67672485582635</v>
+        <v>-11.06371428558698</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.2477360596780966</v>
+        <v>-13.22736538059133</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.37003214419876</v>
+        <v>-10.07909294952998</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.600637983695205</v>
+        <v>-19.31136736447142</v>
       </c>
       <c r="AA12" t="n">
-        <v>-2.190194299419306</v>
+        <v>-10.71972689739303</v>
       </c>
       <c r="AB12" t="n">
-        <v>-6.319176704536419</v>
+        <v>1.468277354949517</v>
       </c>
       <c r="AC12" t="n">
-        <v>446.4156278651186</v>
+        <v>-7.010904913733328</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.90994808795706</v>
+        <v>-10.62163116350886</v>
       </c>
       <c r="AE12" t="n">
-        <v>-15.57794734985208</v>
+        <v>-10.09674064380238</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.979922232694475</v>
+        <v>-2.192634150343019</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.7012579294320489</v>
+        <v>-15.76128526852241</v>
       </c>
     </row>
     <row r="13">
@@ -2743,100 +2743,100 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.148963316339478</v>
+        <v>-6.38062717171862</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.751954013470902</v>
+        <v>-0.9543709778952417</v>
       </c>
       <c r="D13" t="n">
-        <v>23.48559145340686</v>
+        <v>7.173709917202993</v>
       </c>
       <c r="E13" t="n">
-        <v>1.918756899911527</v>
+        <v>11.62372887052637</v>
       </c>
       <c r="F13" t="n">
-        <v>-21.95108516333215</v>
+        <v>-1.506770363238694</v>
       </c>
       <c r="G13" t="n">
-        <v>2.851569742965027</v>
+        <v>-8.993376873669964</v>
       </c>
       <c r="H13" t="n">
-        <v>8.055205488262365</v>
+        <v>0.08465950164244286</v>
       </c>
       <c r="I13" t="n">
-        <v>43.76775762934655</v>
+        <v>7.185180664349063</v>
       </c>
       <c r="J13" t="n">
-        <v>20.95945708057375</v>
+        <v>-0.7115012033036255</v>
       </c>
       <c r="K13" t="n">
-        <v>3.910548740929272</v>
+        <v>-1.169511598075031</v>
       </c>
       <c r="L13" t="n">
-        <v>-3.705256337339486</v>
+        <v>0.8778613632825262</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.240798721612055</v>
+        <v>-1.25857262721022</v>
       </c>
       <c r="N13" t="n">
-        <v>-123.5496692700272</v>
+        <v>9.898962021072538</v>
       </c>
       <c r="O13" t="n">
-        <v>47.32957553211862</v>
+        <v>-0.2130820534032234</v>
       </c>
       <c r="P13" t="n">
-        <v>-4.101703643865723</v>
+        <v>-2.710616367133671</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.016169412150232</v>
+        <v>-0.3796035502734229</v>
       </c>
       <c r="R13" t="n">
-        <v>-5.309156004077685</v>
+        <v>18.28908444839114</v>
       </c>
       <c r="S13" t="n">
-        <v>7.896802605769927</v>
+        <v>0.1114016694851886</v>
       </c>
       <c r="T13" t="n">
-        <v>-13.2646161425733</v>
+        <v>10.1743692025494</v>
       </c>
       <c r="U13" t="n">
-        <v>7.412375894603388</v>
+        <v>4.078622360992078</v>
       </c>
       <c r="V13" t="n">
-        <v>3.083989293582612</v>
+        <v>1.393669842477093</v>
       </c>
       <c r="W13" t="n">
-        <v>64.35414921917584</v>
+        <v>6.935080566832394</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.468337338306286</v>
+        <v>12.23885412704218</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.314326091509759</v>
+        <v>14.96765004592958</v>
       </c>
       <c r="Z13" t="n">
-        <v>-2.898785941052289</v>
+        <v>6.855884866756694</v>
       </c>
       <c r="AA13" t="n">
-        <v>-1.266588845230633</v>
+        <v>4.37905297345705</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.511335667895728</v>
+        <v>0.1421383675725272</v>
       </c>
       <c r="AC13" t="n">
-        <v>68.8817831968817</v>
+        <v>6.526150558617989</v>
       </c>
       <c r="AD13" t="n">
-        <v>24.32750048502474</v>
+        <v>10.00236712548564</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.87616647488049</v>
+        <v>-1.393182247320257</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.759684577319323</v>
+        <v>-1.136431512678004</v>
       </c>
       <c r="AG13" t="n">
-        <v>-2.936893535869014</v>
+        <v>15.89917912024742</v>
       </c>
     </row>
     <row r="14">
@@ -2846,100 +2846,100 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.997980616846636</v>
+        <v>5.5800945250909</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.60403593142444</v>
+        <v>0.6011561938671885</v>
       </c>
       <c r="D14" t="n">
-        <v>-36.85254725545785</v>
+        <v>8.491857904396868</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.107297665298772</v>
+        <v>13.35422483032081</v>
       </c>
       <c r="F14" t="n">
-        <v>-364.8988425427562</v>
+        <v>-0.6148013980627052</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.874241913464586</v>
+        <v>-8.211839654273087</v>
       </c>
       <c r="H14" t="n">
-        <v>-32.92574744184179</v>
+        <v>0.6611091297117401</v>
       </c>
       <c r="I14" t="n">
-        <v>-41.52931821806295</v>
+        <v>-3.711086974616067</v>
       </c>
       <c r="J14" t="n">
-        <v>-136.9410801790291</v>
+        <v>0.120540409299575</v>
       </c>
       <c r="K14" t="n">
-        <v>-23.88345700473516</v>
+        <v>0.07421610223997462</v>
       </c>
       <c r="L14" t="n">
-        <v>-22.08926968033186</v>
+        <v>-0.442984225769446</v>
       </c>
       <c r="M14" t="n">
-        <v>-15.515959638996</v>
+        <v>-6.369699128721571</v>
       </c>
       <c r="N14" t="n">
-        <v>-381.0589401293274</v>
+        <v>2.077440211533249</v>
       </c>
       <c r="O14" t="n">
-        <v>-79.41231706132108</v>
+        <v>-1.096567254376745</v>
       </c>
       <c r="P14" t="n">
-        <v>-3.343285360348281</v>
+        <v>0.1580063305309566</v>
       </c>
       <c r="Q14" t="n">
-        <v>-74.81569836831946</v>
+        <v>0.113721917684453</v>
       </c>
       <c r="R14" t="n">
-        <v>-2.101508527446967</v>
+        <v>13.84800589012531</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.382534589195083</v>
+        <v>-0.1557285609192015</v>
       </c>
       <c r="T14" t="n">
-        <v>-20.27287100435511</v>
+        <v>20.9587065751339</v>
       </c>
       <c r="U14" t="n">
-        <v>21.03389739074074</v>
+        <v>3.912292434889665</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.098954973193122</v>
+        <v>2.858831522864203</v>
       </c>
       <c r="W14" t="n">
-        <v>-228.5668740638007</v>
+        <v>0.1401768002086167</v>
       </c>
       <c r="X14" t="n">
-        <v>-13.80632823359008</v>
+        <v>12.22305461801478</v>
       </c>
       <c r="Y14" t="n">
-        <v>-16.64112561573383</v>
+        <v>6.103438931361482</v>
       </c>
       <c r="Z14" t="n">
-        <v>-3.003264147225131</v>
+        <v>15.19187278843617</v>
       </c>
       <c r="AA14" t="n">
-        <v>-4.09126967386427</v>
+        <v>8.253292889900406</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.26089728769748</v>
+        <v>-1.605982155573705</v>
       </c>
       <c r="AC14" t="n">
-        <v>-1099.675485546514</v>
+        <v>19.86801663541721</v>
       </c>
       <c r="AD14" t="n">
-        <v>-81.31247077897862</v>
+        <v>17.1204963253746</v>
       </c>
       <c r="AE14" t="n">
-        <v>-30.02916309652723</v>
+        <v>-0.6962031692047014</v>
       </c>
       <c r="AF14" t="n">
-        <v>-38.86186706102855</v>
+        <v>-1.612260027834742</v>
       </c>
       <c r="AG14" t="n">
-        <v>-2.860026622786715</v>
+        <v>15.02047914037606</v>
       </c>
     </row>
     <row r="15">
@@ -2949,100 +2949,100 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.211567077503832</v>
+        <v>4.147633940498528</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.75108969885749</v>
+        <v>-0.7253221090659892</v>
       </c>
       <c r="D15" t="n">
-        <v>-40.84115000360929</v>
+        <v>-10.08561531763939</v>
       </c>
       <c r="E15" t="n">
-        <v>6.040819438438983</v>
+        <v>-3.892320635577589</v>
       </c>
       <c r="F15" t="n">
-        <v>-231.1016305984666</v>
+        <v>7.02562778819733</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.058734239536555</v>
+        <v>-8.256978845323138</v>
       </c>
       <c r="H15" t="n">
-        <v>-32.09347897949514</v>
+        <v>-0.7493622179028363</v>
       </c>
       <c r="I15" t="n">
-        <v>-100.8850601297415</v>
+        <v>5.046678082084466</v>
       </c>
       <c r="J15" t="n">
-        <v>-102.236699688202</v>
+        <v>-0.05540331427016044</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.9453643185752799</v>
+        <v>-0.7008945244228681</v>
       </c>
       <c r="L15" t="n">
-        <v>-22.12100871092986</v>
+        <v>-2.516850620039593</v>
       </c>
       <c r="M15" t="n">
-        <v>-17.5208224089375</v>
+        <v>8.682443086669579</v>
       </c>
       <c r="N15" t="n">
-        <v>-231.3461103698326</v>
+        <v>12.1322866472142</v>
       </c>
       <c r="O15" t="n">
-        <v>-76.44235980736758</v>
+        <v>0.8787110329118318</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.071219713959992</v>
+        <v>4.010885348373137</v>
       </c>
       <c r="Q15" t="n">
-        <v>-81.07497319648159</v>
+        <v>-1.401639470273765</v>
       </c>
       <c r="R15" t="n">
-        <v>-2.394174230315855</v>
+        <v>-9.52167694601137</v>
       </c>
       <c r="S15" t="n">
-        <v>-1.722470533189674</v>
+        <v>-1.742672768227827</v>
       </c>
       <c r="T15" t="n">
-        <v>-19.08857292275423</v>
+        <v>-2.991499793448805</v>
       </c>
       <c r="U15" t="n">
-        <v>19.02738955203644</v>
+        <v>1.974021201856667</v>
       </c>
       <c r="V15" t="n">
-        <v>-3.245315548202722</v>
+        <v>5.941436125656423</v>
       </c>
       <c r="W15" t="n">
-        <v>-182.2484067378931</v>
+        <v>2.128109712677522</v>
       </c>
       <c r="X15" t="n">
-        <v>-24.57821457937581</v>
+        <v>-6.869971874572081</v>
       </c>
       <c r="Y15" t="n">
-        <v>-26.71826144600775</v>
+        <v>-7.067956630654427</v>
       </c>
       <c r="Z15" t="n">
-        <v>-1.773369630852252</v>
+        <v>-1.073013382876957</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.8096643239059643</v>
+        <v>-4.695393972502668</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.88858526911</v>
+        <v>-4.859153469917942</v>
       </c>
       <c r="AC15" t="n">
-        <v>-772.8173996765795</v>
+        <v>-8.596352236415157</v>
       </c>
       <c r="AD15" t="n">
-        <v>-48.91849101634507</v>
+        <v>-5.069142380673779</v>
       </c>
       <c r="AE15" t="n">
-        <v>-5.826760197676514</v>
+        <v>12.42837988399403</v>
       </c>
       <c r="AF15" t="n">
-        <v>-13.32125566087297</v>
+        <v>-1.590028992212244</v>
       </c>
       <c r="AG15" t="n">
-        <v>-2.89477074106735</v>
+        <v>-8.872161562001295</v>
       </c>
     </row>
     <row r="16">
@@ -3052,100 +3052,100 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.719128462992164</v>
+        <v>4.993210862171942</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.225315234907113</v>
+        <v>-0.575213659004433</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.920629362575754</v>
+        <v>-2.16894659520043</v>
       </c>
       <c r="E16" t="n">
-        <v>1.156709253771765</v>
+        <v>17.31652213308031</v>
       </c>
       <c r="F16" t="n">
-        <v>-28.52708515528364</v>
+        <v>1.191643822342859</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.498229541363024</v>
+        <v>-1.654456777346756</v>
       </c>
       <c r="H16" t="n">
-        <v>3.110421042648653</v>
+        <v>-0.8779751612683065</v>
       </c>
       <c r="I16" t="n">
-        <v>-10.50990699853747</v>
+        <v>0.1113540815579279</v>
       </c>
       <c r="J16" t="n">
-        <v>29.26286338430678</v>
+        <v>-0.6544208314367483</v>
       </c>
       <c r="K16" t="n">
-        <v>-10.10063910341801</v>
+        <v>-0.1156559453098973</v>
       </c>
       <c r="L16" t="n">
-        <v>-7.385211395544679</v>
+        <v>-3.493084738128914</v>
       </c>
       <c r="M16" t="n">
-        <v>-5.290275412380467</v>
+        <v>-0.2804003114994739</v>
       </c>
       <c r="N16" t="n">
-        <v>51.44172741042564</v>
+        <v>9.338648095441409</v>
       </c>
       <c r="O16" t="n">
-        <v>-29.18689546417336</v>
+        <v>-0.06434135257800505</v>
       </c>
       <c r="P16" t="n">
-        <v>-4.176535168789601</v>
+        <v>1.435264554292386</v>
       </c>
       <c r="Q16" t="n">
-        <v>-31.12441612871836</v>
+        <v>-0.02931093748692532</v>
       </c>
       <c r="R16" t="n">
-        <v>-4.495805646059337</v>
+        <v>0.3120650295055397</v>
       </c>
       <c r="S16" t="n">
-        <v>8.487543266428636</v>
+        <v>-2.213912716964926</v>
       </c>
       <c r="T16" t="n">
-        <v>4.760138599278761</v>
+        <v>6.551567081379056</v>
       </c>
       <c r="U16" t="n">
-        <v>-7.475593639429165</v>
+        <v>13.4271825181089</v>
       </c>
       <c r="V16" t="n">
-        <v>3.886221349405351</v>
+        <v>-0.01512365768400167</v>
       </c>
       <c r="W16" t="n">
-        <v>-69.78821161932144</v>
+        <v>2.559966583823254</v>
       </c>
       <c r="X16" t="n">
-        <v>-10.93089033083323</v>
+        <v>9.597382585529658</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.75144920505832</v>
+        <v>7.459296147087354</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1.55607615229162</v>
+        <v>11.43718604429537</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.7365683028775956</v>
+        <v>-1.017021866301383</v>
       </c>
       <c r="AB16" t="n">
-        <v>2.599845356378438</v>
+        <v>0.3233390467698462</v>
       </c>
       <c r="AC16" t="n">
-        <v>258.8802698552543</v>
+        <v>9.721583331404617</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.735309849037479</v>
+        <v>4.653229556710808</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.412910049234497</v>
+        <v>5.38174339234498</v>
       </c>
       <c r="AF16" t="n">
-        <v>-6.959884048376411</v>
+        <v>-1.257998257382076</v>
       </c>
       <c r="AG16" t="n">
-        <v>-2.771118503534637</v>
+        <v>3.083126629899905</v>
       </c>
     </row>
     <row r="17">
@@ -3155,100 +3155,100 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.479758800363356</v>
+        <v>16.06068468482856</v>
       </c>
       <c r="C17" t="n">
-        <v>3.151175158698868</v>
+        <v>-0.03978947340899668</v>
       </c>
       <c r="D17" t="n">
-        <v>-16.17296510788382</v>
+        <v>-5.353347705713962</v>
       </c>
       <c r="E17" t="n">
-        <v>1.052275386778935</v>
+        <v>4.045023164793238</v>
       </c>
       <c r="F17" t="n">
-        <v>-181.0121746404259</v>
+        <v>1.977489272011129</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.10169010261595</v>
+        <v>1.661002969969427</v>
       </c>
       <c r="H17" t="n">
-        <v>-17.46057869640728</v>
+        <v>0.4452241188506901</v>
       </c>
       <c r="I17" t="n">
-        <v>-21.06770356606204</v>
+        <v>0.02144871128774791</v>
       </c>
       <c r="J17" t="n">
-        <v>-12.48995911746341</v>
+        <v>-0.6362528461357353</v>
       </c>
       <c r="K17" t="n">
-        <v>2.192283592053053</v>
+        <v>-0.1498336472345173</v>
       </c>
       <c r="L17" t="n">
-        <v>-11.88954314954898</v>
+        <v>-2.41138448490967</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.2501616987265337</v>
+        <v>-5.593455540170888</v>
       </c>
       <c r="N17" t="n">
-        <v>-205.6480950385902</v>
+        <v>-4.450552663452187</v>
       </c>
       <c r="O17" t="n">
-        <v>-34.63068211165695</v>
+        <v>-0.3492987766263266</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.590815357994172</v>
+        <v>-0.2228768871525295</v>
       </c>
       <c r="Q17" t="n">
-        <v>-8.522195850897408</v>
+        <v>-0.4672415253483602</v>
       </c>
       <c r="R17" t="n">
-        <v>0.05135400041033448</v>
+        <v>-2.514318449137038</v>
       </c>
       <c r="S17" t="n">
-        <v>4.419683906049432</v>
+        <v>-1.339457769009579</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.339158770444634</v>
+        <v>12.67130898679133</v>
       </c>
       <c r="U17" t="n">
-        <v>12.54941170456754</v>
+        <v>4.849341320785944</v>
       </c>
       <c r="V17" t="n">
-        <v>6.159808845187545</v>
+        <v>-0.6671751998955168</v>
       </c>
       <c r="W17" t="n">
-        <v>-75.01760364824604</v>
+        <v>4.840005178892311</v>
       </c>
       <c r="X17" t="n">
-        <v>0.984813841394121</v>
+        <v>-0.6082015998193111</v>
       </c>
       <c r="Y17" t="n">
-        <v>-22.3273679043737</v>
+        <v>1.481744704378863</v>
       </c>
       <c r="Z17" t="n">
-        <v>-1.797800842549203</v>
+        <v>-2.350371856680271</v>
       </c>
       <c r="AA17" t="n">
-        <v>-2.859273810632256</v>
+        <v>-3.44832059829166</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.717326566069021</v>
+        <v>-0.8937915239626714</v>
       </c>
       <c r="AC17" t="n">
-        <v>-572.3490112591282</v>
+        <v>-4.727813203410271</v>
       </c>
       <c r="AD17" t="n">
-        <v>-20.37820978904147</v>
+        <v>-3.602361146958689</v>
       </c>
       <c r="AE17" t="n">
-        <v>-9.762512630549903</v>
+        <v>10.24973161230427</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.9540993124000107</v>
+        <v>-0.09552735312583119</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.6533463214267987</v>
+        <v>-7.584809045198738</v>
       </c>
     </row>
     <row r="18">
@@ -3258,100 +3258,100 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.201427266237767</v>
+        <v>8.837075755444129</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.936402616662284</v>
+        <v>-0.9871119448791653</v>
       </c>
       <c r="D18" t="n">
-        <v>-11.65505603069331</v>
+        <v>-7.40151895536667</v>
       </c>
       <c r="E18" t="n">
-        <v>4.238662238905033</v>
+        <v>6.869908138928353</v>
       </c>
       <c r="F18" t="n">
-        <v>-18.7712396877893</v>
+        <v>1.175295124500413</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4663880858859149</v>
+        <v>-4.682671206395143</v>
       </c>
       <c r="H18" t="n">
-        <v>-13.16173751610222</v>
+        <v>-0.4383867047401981</v>
       </c>
       <c r="I18" t="n">
-        <v>-21.30040608080342</v>
+        <v>5.419507678675767</v>
       </c>
       <c r="J18" t="n">
-        <v>-59.64652524985082</v>
+        <v>-0.8748405433319355</v>
       </c>
       <c r="K18" t="n">
-        <v>3.821888533375597</v>
+        <v>-1.263278858693276</v>
       </c>
       <c r="L18" t="n">
-        <v>-10.03446372868318</v>
+        <v>-1.915678261742331</v>
       </c>
       <c r="M18" t="n">
-        <v>-8.498876999905427</v>
+        <v>6.423848300102685</v>
       </c>
       <c r="N18" t="n">
-        <v>-14.63347115610113</v>
+        <v>4.541460556105027</v>
       </c>
       <c r="O18" t="n">
-        <v>-65.09188076205406</v>
+        <v>1.896841078474195</v>
       </c>
       <c r="P18" t="n">
-        <v>-4.484480269326606</v>
+        <v>5.024376555623992</v>
       </c>
       <c r="Q18" t="n">
-        <v>-45.11492075250334</v>
+        <v>-1.352298581395577</v>
       </c>
       <c r="R18" t="n">
-        <v>-3.538978408160208</v>
+        <v>-2.982809419195333</v>
       </c>
       <c r="S18" t="n">
-        <v>8.14536963934748</v>
+        <v>0.247786785221901</v>
       </c>
       <c r="T18" t="n">
-        <v>-7.889914463798297</v>
+        <v>-0.1706024271678935</v>
       </c>
       <c r="U18" t="n">
-        <v>11.90865676503109</v>
+        <v>0.346236624528184</v>
       </c>
       <c r="V18" t="n">
-        <v>3.926364855674898</v>
+        <v>-5.374909071711598</v>
       </c>
       <c r="W18" t="n">
-        <v>-59.0619741605142</v>
+        <v>12.22555914792997</v>
       </c>
       <c r="X18" t="n">
-        <v>-17.06231626865416</v>
+        <v>-1.246325129591743</v>
       </c>
       <c r="Y18" t="n">
-        <v>-15.60872584900413</v>
+        <v>-3.611902698721073</v>
       </c>
       <c r="Z18" t="n">
-        <v>-1.822288627602016</v>
+        <v>4.829565429211272</v>
       </c>
       <c r="AA18" t="n">
-        <v>-2.467641743540123</v>
+        <v>3.247329606077399</v>
       </c>
       <c r="AB18" t="n">
-        <v>4.935079032014217</v>
+        <v>-1.012064258017419</v>
       </c>
       <c r="AC18" t="n">
-        <v>-70.44495451952957</v>
+        <v>-2.907480494246642</v>
       </c>
       <c r="AD18" t="n">
-        <v>-31.174717117564</v>
+        <v>8.12373437286767</v>
       </c>
       <c r="AE18" t="n">
-        <v>-4.192734227196955</v>
+        <v>7.652608161508248</v>
       </c>
       <c r="AF18" t="n">
-        <v>-9.716594152419283</v>
+        <v>0.2392156210100035</v>
       </c>
       <c r="AG18" t="n">
-        <v>-2.022610198527955</v>
+        <v>-0.3916763229947812</v>
       </c>
     </row>
     <row r="19">
@@ -3361,100 +3361,100 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.4800016609909512</v>
+        <v>12.51541551496491</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.868216565573171</v>
+        <v>-2.031867387395338</v>
       </c>
       <c r="D19" t="n">
-        <v>-27.98198159675357</v>
+        <v>2.73132555033039</v>
       </c>
       <c r="E19" t="n">
-        <v>6.222552748031555</v>
+        <v>10.68713398371176</v>
       </c>
       <c r="F19" t="n">
-        <v>-94.94829249969318</v>
+        <v>5.161826576834077</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.992722499783052</v>
+        <v>-3.368052474166917</v>
       </c>
       <c r="H19" t="n">
-        <v>-39.8848088972461</v>
+        <v>-0.8834810971008294</v>
       </c>
       <c r="I19" t="n">
-        <v>-31.35550616651237</v>
+        <v>-1.160115027662965</v>
       </c>
       <c r="J19" t="n">
-        <v>-85.69961329629847</v>
+        <v>-0.7286398808915163</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.834482033534282</v>
+        <v>-0.9512580661613623</v>
       </c>
       <c r="L19" t="n">
-        <v>-22.90765983148439</v>
+        <v>2.407586042357662</v>
       </c>
       <c r="M19" t="n">
-        <v>-7.783169726643855</v>
+        <v>9.586825268955572</v>
       </c>
       <c r="N19" t="n">
-        <v>-183.4617867630307</v>
+        <v>7.996202195505304</v>
       </c>
       <c r="O19" t="n">
-        <v>-116.9194723807213</v>
+        <v>-0.8581479757327721</v>
       </c>
       <c r="P19" t="n">
-        <v>-5.805441269664628</v>
+        <v>-2.076416913992698</v>
       </c>
       <c r="Q19" t="n">
-        <v>-15.45523374418561</v>
+        <v>-0.6454206456795887</v>
       </c>
       <c r="R19" t="n">
-        <v>-6.899458246466345</v>
+        <v>-6.609926327154465</v>
       </c>
       <c r="S19" t="n">
-        <v>3.568205124704327</v>
+        <v>-2.689509918144796</v>
       </c>
       <c r="T19" t="n">
-        <v>-21.54478220764528</v>
+        <v>5.06705456695749</v>
       </c>
       <c r="U19" t="n">
-        <v>18.93909877023547</v>
+        <v>8.811948764720677</v>
       </c>
       <c r="V19" t="n">
-        <v>7.860669375046686</v>
+        <v>8.020067866953088</v>
       </c>
       <c r="W19" t="n">
-        <v>-142.8404253998893</v>
+        <v>12.01396621218128</v>
       </c>
       <c r="X19" t="n">
-        <v>-11.30303156036325</v>
+        <v>4.352204860265107</v>
       </c>
       <c r="Y19" t="n">
-        <v>-10.18586919430007</v>
+        <v>4.032959804771997</v>
       </c>
       <c r="Z19" t="n">
-        <v>-3.954427361925072</v>
+        <v>15.83740275985471</v>
       </c>
       <c r="AA19" t="n">
-        <v>-1.232832743195085</v>
+        <v>0.7674553673503456</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.248413116300905</v>
+        <v>-1.203131098333655</v>
       </c>
       <c r="AC19" t="n">
-        <v>-322.459445643394</v>
+        <v>-5.703833440748462</v>
       </c>
       <c r="AD19" t="n">
-        <v>-36.92675052886999</v>
+        <v>8.327291937471015</v>
       </c>
       <c r="AE19" t="n">
-        <v>-38.30700196486754</v>
+        <v>5.856443371584227</v>
       </c>
       <c r="AF19" t="n">
-        <v>-10.33573922328928</v>
+        <v>-0.2927083961321584</v>
       </c>
       <c r="AG19" t="n">
-        <v>-3.982535648221372</v>
+        <v>-3.083142015586456</v>
       </c>
     </row>
     <row r="20">
@@ -3464,100 +3464,100 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.228645589683367</v>
+        <v>-12.50763494256782</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3552268862968471</v>
+        <v>-2.165216335802841</v>
       </c>
       <c r="D20" t="n">
-        <v>6.313650779540225</v>
+        <v>-3.183030691700163</v>
       </c>
       <c r="E20" t="n">
-        <v>4.990292016016217</v>
+        <v>-9.20738732941421</v>
       </c>
       <c r="F20" t="n">
-        <v>-40.51159170831626</v>
+        <v>-13.66873740812468</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.367180105073069</v>
+        <v>-8.220003801602068</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.069342197038869</v>
+        <v>-1.503521839022371</v>
       </c>
       <c r="I20" t="n">
-        <v>-7.379533298541556</v>
+        <v>-7.859452345693526</v>
       </c>
       <c r="J20" t="n">
-        <v>22.88339937227744</v>
+        <v>-0.6999351224067547</v>
       </c>
       <c r="K20" t="n">
-        <v>-16.17987039864693</v>
+        <v>-2.009862916515964</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.3062087065339067</v>
+        <v>-3.352744597242418</v>
       </c>
       <c r="M20" t="n">
-        <v>10.69258233976771</v>
+        <v>-4.906177505131392</v>
       </c>
       <c r="N20" t="n">
-        <v>-22.53217499190214</v>
+        <v>-12.41825042233682</v>
       </c>
       <c r="O20" t="n">
-        <v>71.40378226729059</v>
+        <v>2.94785475446972</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.038657387106418</v>
+        <v>-3.695114667874879</v>
       </c>
       <c r="Q20" t="n">
-        <v>-6.162989437716028</v>
+        <v>-0.1960514549329458</v>
       </c>
       <c r="R20" t="n">
-        <v>-7.585061342346722</v>
+        <v>-3.729537774167226</v>
       </c>
       <c r="S20" t="n">
-        <v>6.105241281150744</v>
+        <v>4.787019447052622</v>
       </c>
       <c r="T20" t="n">
-        <v>3.457266191178154</v>
+        <v>-11.46732380719476</v>
       </c>
       <c r="U20" t="n">
-        <v>7.192807794956941</v>
+        <v>-12.06606565500712</v>
       </c>
       <c r="V20" t="n">
-        <v>2.848052957007017</v>
+        <v>-14.28405008760812</v>
       </c>
       <c r="W20" t="n">
-        <v>43.44082393001964</v>
+        <v>-2.566136237014772</v>
       </c>
       <c r="X20" t="n">
-        <v>-11.58115644274785</v>
+        <v>-6.881745859034842</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.60327558409333</v>
+        <v>-6.316884461421233</v>
       </c>
       <c r="Z20" t="n">
-        <v>-3.148293167252573</v>
+        <v>-7.298942432505456</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.460093037885588</v>
+        <v>-5.446417899559732</v>
       </c>
       <c r="AB20" t="n">
-        <v>-2.475692005563946</v>
+        <v>3.515688411049194</v>
       </c>
       <c r="AC20" t="n">
-        <v>276.1561526355763</v>
+        <v>-4.769099229371908</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.766016996018131</v>
+        <v>-11.57869685262998</v>
       </c>
       <c r="AE20" t="n">
-        <v>14.45171349661181</v>
+        <v>5.419731888374121</v>
       </c>
       <c r="AF20" t="n">
-        <v>12.60233447040798</v>
+        <v>-0.2348549861542239</v>
       </c>
       <c r="AG20" t="n">
-        <v>-3.899314318399977</v>
+        <v>-6.138782862270284</v>
       </c>
     </row>
     <row r="21">
@@ -3567,100 +3567,100 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-4.871027590132854</v>
+        <v>-13.49230497230341</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.2482522949666</v>
+        <v>-1.324809974928393</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2159176891402058</v>
+        <v>-7.719420480564611</v>
       </c>
       <c r="E21" t="n">
-        <v>5.370828824195876</v>
+        <v>-11.58210659746243</v>
       </c>
       <c r="F21" t="n">
-        <v>-16.31965473398848</v>
+        <v>-4.448819439884655</v>
       </c>
       <c r="G21" t="n">
-        <v>-13.2559732578242</v>
+        <v>-5.925294373351325</v>
       </c>
       <c r="H21" t="n">
-        <v>-16.91441316693963</v>
+        <v>-1.240175518716388</v>
       </c>
       <c r="I21" t="n">
-        <v>-46.98195835224807</v>
+        <v>-3.649955448094723</v>
       </c>
       <c r="J21" t="n">
-        <v>-141.5227883257422</v>
+        <v>-1.542533144936719</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.784554609689172</v>
+        <v>-1.241364939692915</v>
       </c>
       <c r="L21" t="n">
-        <v>-20.41211922627327</v>
+        <v>-8.760570427407627</v>
       </c>
       <c r="M21" t="n">
-        <v>-5.137861698120481</v>
+        <v>-5.245846243506168</v>
       </c>
       <c r="N21" t="n">
-        <v>-231.5528827300596</v>
+        <v>-6.318036398432595</v>
       </c>
       <c r="O21" t="n">
-        <v>-92.97791038950973</v>
+        <v>1.089543147243244</v>
       </c>
       <c r="P21" t="n">
-        <v>-1.273257328594046</v>
+        <v>-5.471498223247024</v>
       </c>
       <c r="Q21" t="n">
-        <v>-85.91491763351951</v>
+        <v>-1.564652233791163</v>
       </c>
       <c r="R21" t="n">
-        <v>-1.058193291323249</v>
+        <v>-6.823695305200972</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8217196100683622</v>
+        <v>2.348960505683909</v>
       </c>
       <c r="T21" t="n">
-        <v>-27.02240239587513</v>
+        <v>-15.07328061323804</v>
       </c>
       <c r="U21" t="n">
-        <v>9.378136164652368</v>
+        <v>-16.18802104249219</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.4733227240550854</v>
+        <v>-13.79246422202164</v>
       </c>
       <c r="W21" t="n">
-        <v>-108.3151101168903</v>
+        <v>-9.680038979220971</v>
       </c>
       <c r="X21" t="n">
-        <v>-8.946419100580435</v>
+        <v>-13.9821276318695</v>
       </c>
       <c r="Y21" t="n">
-        <v>-3.529223385612734</v>
+        <v>-9.087267296208625</v>
       </c>
       <c r="Z21" t="n">
-        <v>-1.438542324889151</v>
+        <v>-7.17879402574169</v>
       </c>
       <c r="AA21" t="n">
-        <v>-2.078478978523237</v>
+        <v>-2.450702019178477</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.24489963610115</v>
+        <v>1.346202420089473</v>
       </c>
       <c r="AC21" t="n">
-        <v>-740.8104478486802</v>
+        <v>-7.832714577527444</v>
       </c>
       <c r="AD21" t="n">
-        <v>-30.72021876058738</v>
+        <v>-11.60214635839068</v>
       </c>
       <c r="AE21" t="n">
-        <v>-20.48437538434282</v>
+        <v>-2.27314502364678</v>
       </c>
       <c r="AF21" t="n">
-        <v>-17.05392435369144</v>
+        <v>-1.35230304658345</v>
       </c>
       <c r="AG21" t="n">
-        <v>-3.040186340384431</v>
+        <v>-8.3986825200813</v>
       </c>
     </row>
     <row r="22">
@@ -3670,100 +3670,100 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.4893101591294928</v>
+        <v>-7.760741717428457</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.322175164372791</v>
+        <v>-2.404681227769161</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.192261797685134</v>
+        <v>-7.686209218493058</v>
       </c>
       <c r="E22" t="n">
-        <v>1.335171634931303</v>
+        <v>-9.749554286630804</v>
       </c>
       <c r="F22" t="n">
-        <v>-6.166355211568387</v>
+        <v>-9.907823309580275</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.969388138305145</v>
+        <v>-8.825882620188148</v>
       </c>
       <c r="H22" t="n">
-        <v>2.495947415373871</v>
+        <v>-2.800019378464267</v>
       </c>
       <c r="I22" t="n">
-        <v>-25.46892095435552</v>
+        <v>-12.4088733557604</v>
       </c>
       <c r="J22" t="n">
-        <v>-26.79281319536182</v>
+        <v>-2.551264810422186</v>
       </c>
       <c r="K22" t="n">
-        <v>-14.0309595140162</v>
+        <v>-2.095383669840988</v>
       </c>
       <c r="L22" t="n">
-        <v>-11.82796201929304</v>
+        <v>-3.00939868037271</v>
       </c>
       <c r="M22" t="n">
-        <v>-11.19441313355034</v>
+        <v>-14.0097830770262</v>
       </c>
       <c r="N22" t="n">
-        <v>-50.99811225609656</v>
+        <v>-13.51551765808822</v>
       </c>
       <c r="O22" t="n">
-        <v>-11.08414247452306</v>
+        <v>0.7731281624583993</v>
       </c>
       <c r="P22" t="n">
-        <v>-3.558169712767887</v>
+        <v>-8.806245221850039</v>
       </c>
       <c r="Q22" t="n">
-        <v>-34.83073543693607</v>
+        <v>-3.419663892076055</v>
       </c>
       <c r="R22" t="n">
-        <v>-4.955741064909365</v>
+        <v>-6.050478368909771</v>
       </c>
       <c r="S22" t="n">
-        <v>5.521278944970031</v>
+        <v>1.34776394053174</v>
       </c>
       <c r="T22" t="n">
-        <v>5.569845094196896</v>
+        <v>-14.06628327214459</v>
       </c>
       <c r="U22" t="n">
-        <v>4.848016393808007</v>
+        <v>-14.64127872456285</v>
       </c>
       <c r="V22" t="n">
-        <v>4.78764601431656</v>
+        <v>-13.26149470408402</v>
       </c>
       <c r="W22" t="n">
-        <v>-55.32684085920423</v>
+        <v>-16.78660155021532</v>
       </c>
       <c r="X22" t="n">
-        <v>-18.84981369547756</v>
+        <v>-7.35393049771611</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.19818029090208</v>
+        <v>-5.537321142893263</v>
       </c>
       <c r="Z22" t="n">
-        <v>-2.528255001153458</v>
+        <v>-8.632087364260698</v>
       </c>
       <c r="AA22" t="n">
-        <v>-1.703077695854509</v>
+        <v>-15.74363053983236</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.105096657303093</v>
+        <v>1.672553620027035</v>
       </c>
       <c r="AC22" t="n">
-        <v>242.5113168021743</v>
+        <v>1.073880342146858</v>
       </c>
       <c r="AD22" t="n">
-        <v>-9.414163032704517</v>
+        <v>-10.74295062221348</v>
       </c>
       <c r="AE22" t="n">
-        <v>7.052642712333447</v>
+        <v>-3.513213591487459</v>
       </c>
       <c r="AF22" t="n">
-        <v>-9.250511813257901</v>
+        <v>-1.051023639540347</v>
       </c>
       <c r="AG22" t="n">
-        <v>-2.396491552789293</v>
+        <v>-8.361625454176776</v>
       </c>
     </row>
     <row r="23">
@@ -3773,100 +3773,100 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5641137813062523</v>
+        <v>7.08921592634673</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.280910107678249</v>
+        <v>-2.051091879683508</v>
       </c>
       <c r="D23" t="n">
-        <v>-19.14555720279607</v>
+        <v>1.87929471745385</v>
       </c>
       <c r="E23" t="n">
-        <v>5.659527564707441</v>
+        <v>9.432913151885868</v>
       </c>
       <c r="F23" t="n">
-        <v>-87.11799936671054</v>
+        <v>6.611349403595966</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.5818674966690865</v>
+        <v>0.002520193051673984</v>
       </c>
       <c r="H23" t="n">
-        <v>7.709042314095798</v>
+        <v>-2.559861285704235</v>
       </c>
       <c r="I23" t="n">
-        <v>1.207694431260045</v>
+        <v>-2.579682371667847</v>
       </c>
       <c r="J23" t="n">
-        <v>-26.11932371352422</v>
+        <v>-1.680973942772584</v>
       </c>
       <c r="K23" t="n">
-        <v>4.612308831943664</v>
+        <v>-1.97839038838815</v>
       </c>
       <c r="L23" t="n">
-        <v>2.295253603660802</v>
+        <v>4.824459404065489</v>
       </c>
       <c r="M23" t="n">
-        <v>-18.72832842201589</v>
+        <v>7.053693645085187</v>
       </c>
       <c r="N23" t="n">
-        <v>-11.64112843373207</v>
+        <v>15.71724236649677</v>
       </c>
       <c r="O23" t="n">
-        <v>-47.86468198997213</v>
+        <v>0.9371490295820994</v>
       </c>
       <c r="P23" t="n">
-        <v>-4.147144609063093</v>
+        <v>3.083279387068798</v>
       </c>
       <c r="Q23" t="n">
-        <v>-48.99992603607392</v>
+        <v>-3.176827558169103</v>
       </c>
       <c r="R23" t="n">
-        <v>-4.613862591419873</v>
+        <v>-5.107001751545596</v>
       </c>
       <c r="S23" t="n">
-        <v>8.086498214370236</v>
+        <v>-3.112465264931007</v>
       </c>
       <c r="T23" t="n">
-        <v>-13.30650483816467</v>
+        <v>6.560463410631989</v>
       </c>
       <c r="U23" t="n">
-        <v>6.917166762764989</v>
+        <v>-2.882003827770795</v>
       </c>
       <c r="V23" t="n">
-        <v>2.229692774905796</v>
+        <v>-3.924895602332586</v>
       </c>
       <c r="W23" t="n">
-        <v>-22.62853505549187</v>
+        <v>11.57389075906714</v>
       </c>
       <c r="X23" t="n">
-        <v>-15.47454602130147</v>
+        <v>-1.399829603706861</v>
       </c>
       <c r="Y23" t="n">
-        <v>-30.3174050042427</v>
+        <v>-5.322525237718293</v>
       </c>
       <c r="Z23" t="n">
-        <v>-3.007143621910375</v>
+        <v>8.194042282438843</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.6081506190740842</v>
+        <v>-1.900665878873712</v>
       </c>
       <c r="AB23" t="n">
-        <v>3.792541159765393</v>
+        <v>-1.520078801994512</v>
       </c>
       <c r="AC23" t="n">
-        <v>-58.01662671264078</v>
+        <v>-0.07739494767270101</v>
       </c>
       <c r="AD23" t="n">
-        <v>-1.906228329324858</v>
+        <v>-1.907943506412454</v>
       </c>
       <c r="AE23" t="n">
-        <v>-15.09910872776212</v>
+        <v>13.32536400955371</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.4751935341028612</v>
+        <v>-0.2692913706362186</v>
       </c>
       <c r="AG23" t="n">
-        <v>-2.277352200666611</v>
+        <v>-8.814226647318588</v>
       </c>
     </row>
     <row r="24">
@@ -3876,100 +3876,100 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.350201449343476</v>
+        <v>-6.612323985981182</v>
       </c>
       <c r="C24" t="n">
-        <v>-4.362943826039405</v>
+        <v>-1.957196271418959</v>
       </c>
       <c r="D24" t="n">
-        <v>6.883348180034018</v>
+        <v>-17.22579187793004</v>
       </c>
       <c r="E24" t="n">
-        <v>3.647725538170084</v>
+        <v>-12.91827505750566</v>
       </c>
       <c r="F24" t="n">
-        <v>20.45943810091364</v>
+        <v>29.81161020944288</v>
       </c>
       <c r="G24" t="n">
-        <v>5.085161748624749</v>
+        <v>3.875631693626338</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.7537793702942739</v>
+        <v>-1.227302931848117</v>
       </c>
       <c r="I24" t="n">
-        <v>-23.08529871557841</v>
+        <v>-3.617023051710689</v>
       </c>
       <c r="J24" t="n">
-        <v>-7.620826550215648</v>
+        <v>-1.154949693085736</v>
       </c>
       <c r="K24" t="n">
-        <v>5.999428912862255</v>
+        <v>-1.581830252117938</v>
       </c>
       <c r="L24" t="n">
-        <v>-7.746055346393276</v>
+        <v>-0.430804862793434</v>
       </c>
       <c r="M24" t="n">
-        <v>11.73550768795498</v>
+        <v>3.376368264777003</v>
       </c>
       <c r="N24" t="n">
-        <v>5.518962269520638</v>
+        <v>9.193724844439709</v>
       </c>
       <c r="O24" t="n">
-        <v>-27.02486178320413</v>
+        <v>1.654034360894375</v>
       </c>
       <c r="P24" t="n">
-        <v>-4.438823474889082</v>
+        <v>-7.907899348494983</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.38125444963766</v>
+        <v>-2.413616385147398</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.292560726682332</v>
+        <v>-15.35110584404133</v>
       </c>
       <c r="S24" t="n">
-        <v>7.817215226060639</v>
+        <v>-1.738504522585447</v>
       </c>
       <c r="T24" t="n">
-        <v>-8.139314577582525</v>
+        <v>-9.541769782940595</v>
       </c>
       <c r="U24" t="n">
-        <v>0.8096194013592868</v>
+        <v>-5.826116035859877</v>
       </c>
       <c r="V24" t="n">
-        <v>4.823052171992726</v>
+        <v>-4.335449911730861</v>
       </c>
       <c r="W24" t="n">
-        <v>-2.311427771864423</v>
+        <v>5.022269670546477</v>
       </c>
       <c r="X24" t="n">
-        <v>4.542121271461949</v>
+        <v>-13.68520189104597</v>
       </c>
       <c r="Y24" t="n">
-        <v>-7.131934922234623</v>
+        <v>-14.04507983725373</v>
       </c>
       <c r="Z24" t="n">
-        <v>-3.262496094514195</v>
+        <v>-14.68016989579542</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.6698825584876328</v>
+        <v>-8.705213267711548</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.839897485978305</v>
+        <v>-2.518863460446849</v>
       </c>
       <c r="AC24" t="n">
-        <v>267.9864612438727</v>
+        <v>-16.47428291724992</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.01565029106820859</v>
+        <v>-11.45396473689427</v>
       </c>
       <c r="AE24" t="n">
-        <v>11.25028627521892</v>
+        <v>8.332819248150694</v>
       </c>
       <c r="AF24" t="n">
-        <v>15.10354799253582</v>
+        <v>-0.8883116525382707</v>
       </c>
       <c r="AG24" t="n">
-        <v>-2.506260222054176</v>
+        <v>-21.49958520574974</v>
       </c>
     </row>
     <row r="25">
@@ -3979,100 +3979,100 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.699555000609561</v>
+        <v>1.907548502804506</v>
       </c>
       <c r="C25" t="n">
-        <v>-5.044799568170657</v>
+        <v>1.139638466368203</v>
       </c>
       <c r="D25" t="n">
-        <v>-13.2781943595282</v>
+        <v>-10.09571712122721</v>
       </c>
       <c r="E25" t="n">
-        <v>6.416025583171955</v>
+        <v>-5.702338351669849</v>
       </c>
       <c r="F25" t="n">
-        <v>2.097715895065448</v>
+        <v>-1.27605621019195</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.768138578299455</v>
+        <v>4.444663925950408</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.72906285174515</v>
+        <v>0.3695770349207038</v>
       </c>
       <c r="I25" t="n">
-        <v>9.381297107425198</v>
+        <v>-0.5604973134150745</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.192220082333547</v>
+        <v>0.2115126203760162</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.57490859262501</v>
+        <v>0.6900565336907726</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9846304893589111</v>
+        <v>0.7943276804000904</v>
       </c>
       <c r="M25" t="n">
-        <v>-15.22984401552296</v>
+        <v>1.018303974300223</v>
       </c>
       <c r="N25" t="n">
-        <v>123.437088883912</v>
+        <v>-8.242288569646883</v>
       </c>
       <c r="O25" t="n">
-        <v>-21.4294341251101</v>
+        <v>0.9413102438235713</v>
       </c>
       <c r="P25" t="n">
-        <v>-2.690889799757304</v>
+        <v>1.617613198034131</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.5795528379582</v>
+        <v>-0.4999185895268707</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.74943431031606</v>
+        <v>-5.668709001640741</v>
       </c>
       <c r="S25" t="n">
-        <v>5.798250586436683</v>
+        <v>1.11196687415908</v>
       </c>
       <c r="T25" t="n">
-        <v>5.705364599667738</v>
+        <v>-7.218803608840211</v>
       </c>
       <c r="U25" t="n">
-        <v>2.816452540299369</v>
+        <v>-3.710189366165073</v>
       </c>
       <c r="V25" t="n">
-        <v>15.14508468385683</v>
+        <v>-8.906726927286453</v>
       </c>
       <c r="W25" t="n">
-        <v>-36.67202021369506</v>
+        <v>7.660886650659449</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.2569266624180167</v>
+        <v>-5.167376605472214</v>
       </c>
       <c r="Y25" t="n">
-        <v>-18.19189232014806</v>
+        <v>-16.16076636502214</v>
       </c>
       <c r="Z25" t="n">
-        <v>-1.599428508712049</v>
+        <v>-5.90238557688178</v>
       </c>
       <c r="AA25" t="n">
-        <v>-1.640846126180536</v>
+        <v>-9.620063173489768</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.517950449140379</v>
+        <v>1.436208516318152</v>
       </c>
       <c r="AC25" t="n">
-        <v>709.2454103906366</v>
+        <v>-14.93629710584697</v>
       </c>
       <c r="AD25" t="n">
-        <v>-6.394451614587464</v>
+        <v>-9.510509346093659</v>
       </c>
       <c r="AE25" t="n">
-        <v>-27.67232278044203</v>
+        <v>6.193948024085228</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.5144850201458411</v>
+        <v>-0.6255425880105301</v>
       </c>
       <c r="AG25" t="n">
-        <v>-2.105037888154576</v>
+        <v>-4.856588036405201</v>
       </c>
     </row>
     <row r="26">
@@ -4082,100 +4082,100 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.464962783901192</v>
+        <v>12.01254585369448</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.118218823127074</v>
+        <v>1.294938409105616</v>
       </c>
       <c r="D26" t="n">
-        <v>-24.2121833808683</v>
+        <v>12.98918250198803</v>
       </c>
       <c r="E26" t="n">
-        <v>3.950420867523517</v>
+        <v>13.47458855704089</v>
       </c>
       <c r="F26" t="n">
-        <v>-246.9810454789808</v>
+        <v>1.410848906831004</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1636402076189766</v>
+        <v>0.5795803156875454</v>
       </c>
       <c r="H26" t="n">
-        <v>-12.79599928553231</v>
+        <v>0.2461832030011302</v>
       </c>
       <c r="I26" t="n">
-        <v>-12.98918430369567</v>
+        <v>3.443991667209244</v>
       </c>
       <c r="J26" t="n">
-        <v>-26.60447024722661</v>
+        <v>1.595012049931773</v>
       </c>
       <c r="K26" t="n">
-        <v>4.082283610891047</v>
+        <v>1.188668364696574</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.5302811789964922</v>
+        <v>-1.440549764148829</v>
       </c>
       <c r="M26" t="n">
-        <v>8.952848566729859</v>
+        <v>2.404610822245632</v>
       </c>
       <c r="N26" t="n">
-        <v>121.7395919339236</v>
+        <v>0.8594158310670837</v>
       </c>
       <c r="O26" t="n">
-        <v>17.69388464436263</v>
+        <v>-0.3523627172351917</v>
       </c>
       <c r="P26" t="n">
-        <v>-4.903010101148342</v>
+        <v>2.351832271194262</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.519563374742084</v>
+        <v>-0.3236316916452069</v>
       </c>
       <c r="R26" t="n">
-        <v>-4.726443103277655</v>
+        <v>4.346631866815068</v>
       </c>
       <c r="S26" t="n">
-        <v>7.37723601216713</v>
+        <v>-1.61242793383894</v>
       </c>
       <c r="T26" t="n">
-        <v>-8.322937513474725</v>
+        <v>13.54736041815469</v>
       </c>
       <c r="U26" t="n">
-        <v>3.439955390785663</v>
+        <v>11.45044783857208</v>
       </c>
       <c r="V26" t="n">
-        <v>9.441598506157609</v>
+        <v>0.4614125064073253</v>
       </c>
       <c r="W26" t="n">
-        <v>60.38653734225185</v>
+        <v>-0.5647375464738289</v>
       </c>
       <c r="X26" t="n">
-        <v>-17.14098130576709</v>
+        <v>10.91875915622384</v>
       </c>
       <c r="Y26" t="n">
-        <v>-47.96396123620841</v>
+        <v>13.94258622010079</v>
       </c>
       <c r="Z26" t="n">
-        <v>-2.043055591589093</v>
+        <v>8.72495398401491</v>
       </c>
       <c r="AA26" t="n">
-        <v>-0.8431097647640922</v>
+        <v>3.515195796727666</v>
       </c>
       <c r="AB26" t="n">
-        <v>5.693750849223246</v>
+        <v>0.921169688013097</v>
       </c>
       <c r="AC26" t="n">
-        <v>585.0316666027716</v>
+        <v>14.76137758656783</v>
       </c>
       <c r="AD26" t="n">
-        <v>-5.206949920076745</v>
+        <v>13.62341034885748</v>
       </c>
       <c r="AE26" t="n">
-        <v>-17.4275102848551</v>
+        <v>-3.860063947366544</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.557369578715255</v>
+        <v>-0.1842803119453794</v>
       </c>
       <c r="AG26" t="n">
-        <v>-1.818985836683821</v>
+        <v>19.11258616330312</v>
       </c>
     </row>
     <row r="27">
@@ -4185,100 +4185,100 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-2.433726274863359</v>
+        <v>9.430667535417181</v>
       </c>
       <c r="C27" t="n">
-        <v>-9.418809324248009</v>
+        <v>-1.313822153340449</v>
       </c>
       <c r="D27" t="n">
-        <v>-45.32495643253932</v>
+        <v>6.599023958713803</v>
       </c>
       <c r="E27" t="n">
-        <v>7.816331500445491</v>
+        <v>23.08519368415914</v>
       </c>
       <c r="F27" t="n">
-        <v>-124.8830415639654</v>
+        <v>-1.426167547790996</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.967420699552241</v>
+        <v>-1.670854745309577</v>
       </c>
       <c r="H27" t="n">
-        <v>-41.80551484067751</v>
+        <v>-1.583591962798265</v>
       </c>
       <c r="I27" t="n">
-        <v>-46.15828852121824</v>
+        <v>-0.7831600095424706</v>
       </c>
       <c r="J27" t="n">
-        <v>-66.54627813222444</v>
+        <v>-0.3548197698477773</v>
       </c>
       <c r="K27" t="n">
-        <v>-23.77928965315606</v>
+        <v>-1.1560881966477</v>
       </c>
       <c r="L27" t="n">
-        <v>-13.80700767391487</v>
+        <v>0.4161529027522218</v>
       </c>
       <c r="M27" t="n">
-        <v>-18.3072020012503</v>
+        <v>-0.2938625673115751</v>
       </c>
       <c r="N27" t="n">
-        <v>-310.4601130157521</v>
+        <v>0.8794861544444562</v>
       </c>
       <c r="O27" t="n">
-        <v>-23.03494471248101</v>
+        <v>-3.354102594924798</v>
       </c>
       <c r="P27" t="n">
-        <v>-3.656494282520519</v>
+        <v>0.2457645014307751</v>
       </c>
       <c r="Q27" t="n">
-        <v>-47.74799795200941</v>
+        <v>0.3129354832235445</v>
       </c>
       <c r="R27" t="n">
-        <v>-2.453309726946463</v>
+        <v>6.239487386636672</v>
       </c>
       <c r="S27" t="n">
-        <v>5.497831412218679</v>
+        <v>-2.434998352293056</v>
       </c>
       <c r="T27" t="n">
-        <v>-10.0266444000223</v>
+        <v>10.96171963145016</v>
       </c>
       <c r="U27" t="n">
-        <v>4.934024404557296</v>
+        <v>9.982836405058062</v>
       </c>
       <c r="V27" t="n">
-        <v>13.11104951890982</v>
+        <v>-0.9774703960768016</v>
       </c>
       <c r="W27" t="n">
-        <v>-100.0161256248281</v>
+        <v>-3.765814851061638</v>
       </c>
       <c r="X27" t="n">
-        <v>-23.80873418860804</v>
+        <v>10.74773650374517</v>
       </c>
       <c r="Y27" t="n">
-        <v>-57.57843600734776</v>
+        <v>4.832912619749205</v>
       </c>
       <c r="Z27" t="n">
-        <v>-2.975981070179022</v>
+        <v>17.40464988098871</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.5054045562876047</v>
+        <v>0.01383098413274236</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.422437859618171</v>
+        <v>-0.8555835277140404</v>
       </c>
       <c r="AC27" t="n">
-        <v>-331.3194104177609</v>
+        <v>8.722993253280874</v>
       </c>
       <c r="AD27" t="n">
-        <v>-28.3557946088386</v>
+        <v>4.666318276720947</v>
       </c>
       <c r="AE27" t="n">
-        <v>-52.18170288691546</v>
+        <v>4.378934494029529</v>
       </c>
       <c r="AF27" t="n">
-        <v>-37.74434422767164</v>
+        <v>-0.04907971907101104</v>
       </c>
       <c r="AG27" t="n">
-        <v>-1.379096427633762</v>
+        <v>4.317297833647782</v>
       </c>
     </row>
     <row r="28">
@@ -4288,100 +4288,100 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.6001476851868585</v>
+        <v>-9.758031327534107</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.107439801277797</v>
+        <v>-0.2959049021272408</v>
       </c>
       <c r="D28" t="n">
-        <v>-22.85182014553641</v>
+        <v>-6.476023028203244</v>
       </c>
       <c r="E28" t="n">
-        <v>6.874588776279402</v>
+        <v>-7.571107890929603</v>
       </c>
       <c r="F28" t="n">
-        <v>-117.455754063085</v>
+        <v>-9.349736200307552</v>
       </c>
       <c r="G28" t="n">
-        <v>1.873743108470098</v>
+        <v>-12.67488994369523</v>
       </c>
       <c r="H28" t="n">
-        <v>-8.069168850608458</v>
+        <v>-0.5298230335470659</v>
       </c>
       <c r="I28" t="n">
-        <v>-9.380058121375672</v>
+        <v>-5.803392190356801</v>
       </c>
       <c r="J28" t="n">
-        <v>-29.0658847938775</v>
+        <v>-0.1144818079844042</v>
       </c>
       <c r="K28" t="n">
-        <v>5.685080772551341</v>
+        <v>0.8056861556259682</v>
       </c>
       <c r="L28" t="n">
-        <v>-12.6575326329531</v>
+        <v>-6.655982551639726</v>
       </c>
       <c r="M28" t="n">
-        <v>-13.99980747025162</v>
+        <v>-13.76841963236464</v>
       </c>
       <c r="N28" t="n">
-        <v>-115.8708249000315</v>
+        <v>-18.91621326031134</v>
       </c>
       <c r="O28" t="n">
-        <v>-24.7380863899287</v>
+        <v>1.836705641372808</v>
       </c>
       <c r="P28" t="n">
-        <v>-5.928535789412802</v>
+        <v>-9.713577892418494</v>
       </c>
       <c r="Q28" t="n">
-        <v>-26.14536957121299</v>
+        <v>-1.983358125564321</v>
       </c>
       <c r="R28" t="n">
-        <v>-5.006005472144119</v>
+        <v>-10.87739166916748</v>
       </c>
       <c r="S28" t="n">
-        <v>8.523797525243767</v>
+        <v>2.142224391168115</v>
       </c>
       <c r="T28" t="n">
-        <v>-4.767398966557161</v>
+        <v>-10.87945158228569</v>
       </c>
       <c r="U28" t="n">
-        <v>8.622475711923743</v>
+        <v>-15.09444649910546</v>
       </c>
       <c r="V28" t="n">
-        <v>3.328391332572557</v>
+        <v>-10.64042642504969</v>
       </c>
       <c r="W28" t="n">
-        <v>57.43399730050812</v>
+        <v>-13.40132942674437</v>
       </c>
       <c r="X28" t="n">
-        <v>-15.06405018409637</v>
+        <v>-12.55957426814429</v>
       </c>
       <c r="Y28" t="n">
-        <v>-22.04917443147074</v>
+        <v>-11.91746340205239</v>
       </c>
       <c r="Z28" t="n">
-        <v>-2.277232640224223</v>
+        <v>-13.64770316727502</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.7923830900485652</v>
+        <v>-9.73931329578439</v>
       </c>
       <c r="AB28" t="n">
-        <v>2.66819939537733</v>
+        <v>1.849232226341515</v>
       </c>
       <c r="AC28" t="n">
-        <v>58.84274022144582</v>
+        <v>-13.5896459714418</v>
       </c>
       <c r="AD28" t="n">
-        <v>-34.63210609305334</v>
+        <v>-17.03728806878091</v>
       </c>
       <c r="AE28" t="n">
-        <v>5.643990633749599</v>
+        <v>-8.737978237839622</v>
       </c>
       <c r="AF28" t="n">
-        <v>-8.891303335198275</v>
+        <v>-1.163095641251481</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.9205508393139659</v>
+        <v>-10.70031659223545</v>
       </c>
     </row>
     <row r="29">
@@ -4391,100 +4391,100 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.550848625892219</v>
+        <v>4.910318848054168</v>
       </c>
       <c r="C29" t="n">
-        <v>-4.637662402435586</v>
+        <v>0.1267154386459869</v>
       </c>
       <c r="D29" t="n">
-        <v>-35.67190209265384</v>
+        <v>4.63464867947776</v>
       </c>
       <c r="E29" t="n">
-        <v>5.399393650904137</v>
+        <v>3.50750494649091</v>
       </c>
       <c r="F29" t="n">
-        <v>-27.2661277983146</v>
+        <v>5.82026723735037</v>
       </c>
       <c r="G29" t="n">
-        <v>2.186186121223887</v>
+        <v>-1.901908915829494</v>
       </c>
       <c r="H29" t="n">
-        <v>-29.79387516543999</v>
+        <v>-1.435489326484262</v>
       </c>
       <c r="I29" t="n">
-        <v>-80.88195476206116</v>
+        <v>-2.951973384235285</v>
       </c>
       <c r="J29" t="n">
-        <v>-70.32781459261604</v>
+        <v>-0.2986596170153944</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.361475294737668</v>
+        <v>-0.4572730110280269</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.413836714229626</v>
+        <v>-0.4307172457514909</v>
       </c>
       <c r="M29" t="n">
-        <v>-4.180799563621567</v>
+        <v>-2.864218856057601</v>
       </c>
       <c r="N29" t="n">
-        <v>-235.4292833230111</v>
+        <v>0.8150901789136406</v>
       </c>
       <c r="O29" t="n">
-        <v>-64.64735593418463</v>
+        <v>-0.7387425531924727</v>
       </c>
       <c r="P29" t="n">
-        <v>-5.138232576998866</v>
+        <v>1.985271878464902</v>
       </c>
       <c r="Q29" t="n">
-        <v>-60.56484660408274</v>
+        <v>1.004956056616142</v>
       </c>
       <c r="R29" t="n">
-        <v>-3.607945659890686</v>
+        <v>5.599627865648859</v>
       </c>
       <c r="S29" t="n">
-        <v>4.432059593353061</v>
+        <v>0.3305465246404414</v>
       </c>
       <c r="T29" t="n">
-        <v>-15.12064114530089</v>
+        <v>5.027640900704519</v>
       </c>
       <c r="U29" t="n">
-        <v>23.07975426488327</v>
+        <v>0.1291282052239729</v>
       </c>
       <c r="V29" t="n">
-        <v>7.137102578252196</v>
+        <v>-3.140129285668681</v>
       </c>
       <c r="W29" t="n">
-        <v>-245.0580233741814</v>
+        <v>-13.02793899434336</v>
       </c>
       <c r="X29" t="n">
-        <v>-23.3806526514037</v>
+        <v>9.87560639001677</v>
       </c>
       <c r="Y29" t="n">
-        <v>-40.08307362297442</v>
+        <v>13.08801054130374</v>
       </c>
       <c r="Z29" t="n">
-        <v>-3.15126496583129</v>
+        <v>3.528635106349341</v>
       </c>
       <c r="AA29" t="n">
-        <v>-3.956133898648835</v>
+        <v>1.030876572049562</v>
       </c>
       <c r="AB29" t="n">
-        <v>2.187996762843018</v>
+        <v>-0.5297674138338708</v>
       </c>
       <c r="AC29" t="n">
-        <v>164.2580758404754</v>
+        <v>13.31340631887864</v>
       </c>
       <c r="AD29" t="n">
-        <v>-68.99469130808554</v>
+        <v>8.249947410761788</v>
       </c>
       <c r="AE29" t="n">
-        <v>-21.8545593760375</v>
+        <v>1.334055487452539</v>
       </c>
       <c r="AF29" t="n">
-        <v>-0.7507657843118913</v>
+        <v>-0.5505040355348171</v>
       </c>
       <c r="AG29" t="n">
-        <v>-2.980320737375167</v>
+        <v>10.32971932295198</v>
       </c>
     </row>
     <row r="30">
@@ -4494,100 +4494,100 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.892603784643026</v>
+        <v>14.10052213140634</v>
       </c>
       <c r="C30" t="n">
-        <v>-8.744565827256997</v>
+        <v>-1.346750343820493</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.780912410410281</v>
+        <v>1.264734124108689</v>
       </c>
       <c r="E30" t="n">
-        <v>6.695382153894077</v>
+        <v>6.776332862947056</v>
       </c>
       <c r="F30" t="n">
-        <v>82.21262333576065</v>
+        <v>-1.640720164320618</v>
       </c>
       <c r="G30" t="n">
-        <v>2.278470700138266</v>
+        <v>2.120047863663557</v>
       </c>
       <c r="H30" t="n">
-        <v>2.437476539494009</v>
+        <v>-1.877422930917196</v>
       </c>
       <c r="I30" t="n">
-        <v>-19.3653101205335</v>
+        <v>-0.5311428055760032</v>
       </c>
       <c r="J30" t="n">
-        <v>-60.42742570530265</v>
+        <v>-0.498760787391932</v>
       </c>
       <c r="K30" t="n">
-        <v>5.707221174186949</v>
+        <v>-1.749939444226931</v>
       </c>
       <c r="L30" t="n">
-        <v>-16.06380088974528</v>
+        <v>-1.313198468042963</v>
       </c>
       <c r="M30" t="n">
-        <v>1.97399103870565</v>
+        <v>0.2374287243046173</v>
       </c>
       <c r="N30" t="n">
-        <v>-52.99724233807233</v>
+        <v>13.77905575306043</v>
       </c>
       <c r="O30" t="n">
-        <v>-75.02930015582596</v>
+        <v>-1.328563267756495</v>
       </c>
       <c r="P30" t="n">
-        <v>-4.033724008592444</v>
+        <v>1.862942524352375</v>
       </c>
       <c r="Q30" t="n">
-        <v>-12.83206489988286</v>
+        <v>-0.2405396969028569</v>
       </c>
       <c r="R30" t="n">
-        <v>-3.796847746336789</v>
+        <v>5.506068712869538</v>
       </c>
       <c r="S30" t="n">
-        <v>7.919127093820464</v>
+        <v>-1.218642854111311</v>
       </c>
       <c r="T30" t="n">
-        <v>-11.81652226779623</v>
+        <v>5.938970353338362</v>
       </c>
       <c r="U30" t="n">
-        <v>0.9803118830350063</v>
+        <v>4.273009621221142</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7946043784830279</v>
+        <v>0.6475902778275631</v>
       </c>
       <c r="W30" t="n">
-        <v>-35.49260366541487</v>
+        <v>6.789134951196026</v>
       </c>
       <c r="X30" t="n">
-        <v>-7.64183405750841</v>
+        <v>5.960693114556348</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.94299653374425</v>
+        <v>9.192061874061313</v>
       </c>
       <c r="Z30" t="n">
-        <v>-2.44899974617984</v>
+        <v>6.271867800722542</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.05893705201733457</v>
+        <v>2.937826835355977</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.556575289828936</v>
+        <v>0.04582967621221824</v>
       </c>
       <c r="AC30" t="n">
-        <v>105.4834140419632</v>
+        <v>6.818834522187961</v>
       </c>
       <c r="AD30" t="n">
-        <v>-36.89838712098327</v>
+        <v>8.559199880330834</v>
       </c>
       <c r="AE30" t="n">
-        <v>-15.31828167156235</v>
+        <v>2.971254844990435</v>
       </c>
       <c r="AF30" t="n">
-        <v>-16.35512611974681</v>
+        <v>-1.11707031659807</v>
       </c>
       <c r="AG30" t="n">
-        <v>-0.3527889452933166</v>
+        <v>2.936747906841778</v>
       </c>
     </row>
     <row r="31">
@@ -4597,100 +4597,100 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8541451886023832</v>
+        <v>1.003923687807351</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.8185312684477835</v>
+        <v>-0.3816965809474432</v>
       </c>
       <c r="D31" t="n">
-        <v>-5.24407380538783</v>
+        <v>-1.953519906113469</v>
       </c>
       <c r="E31" t="n">
-        <v>5.839384966010057</v>
+        <v>-4.581353131810966</v>
       </c>
       <c r="F31" t="n">
-        <v>138.4098645666612</v>
+        <v>0.2552783482251615</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.03993740658585</v>
+        <v>-1.988940940938851</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.094582642205411</v>
+        <v>-0.2031518950336248</v>
       </c>
       <c r="I31" t="n">
-        <v>24.48484689418813</v>
+        <v>2.692913724035939</v>
       </c>
       <c r="J31" t="n">
-        <v>85.83527651309697</v>
+        <v>-1.370282049440029</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6821070086584783</v>
+        <v>-0.274284130501947</v>
       </c>
       <c r="L31" t="n">
-        <v>-8.897008087492406</v>
+        <v>-4.536493545269453</v>
       </c>
       <c r="M31" t="n">
-        <v>14.32258382396444</v>
+        <v>-1.96771626909261</v>
       </c>
       <c r="N31" t="n">
-        <v>-69.44204050307819</v>
+        <v>-1.356980968894812</v>
       </c>
       <c r="O31" t="n">
-        <v>21.54992215580336</v>
+        <v>2.531809068237289</v>
       </c>
       <c r="P31" t="n">
-        <v>-6.082540083804381</v>
+        <v>-3.175808807503731</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.97498814258918</v>
+        <v>1.35412823813793</v>
       </c>
       <c r="R31" t="n">
-        <v>-7.944437821296145</v>
+        <v>-6.193945417599008</v>
       </c>
       <c r="S31" t="n">
-        <v>4.759192392460546</v>
+        <v>2.404432144215098</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1791490601429223</v>
+        <v>-6.410325237354098</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.795699920293762</v>
+        <v>-2.964143236765609</v>
       </c>
       <c r="V31" t="n">
-        <v>5.607893958934682</v>
+        <v>-4.633018497724478</v>
       </c>
       <c r="W31" t="n">
-        <v>36.33209361095485</v>
+        <v>2.754035716438316</v>
       </c>
       <c r="X31" t="n">
-        <v>-10.88779826503988</v>
+        <v>-6.061886016538073</v>
       </c>
       <c r="Y31" t="n">
-        <v>-11.75330022121676</v>
+        <v>-7.742117838378554</v>
       </c>
       <c r="Z31" t="n">
-        <v>-4.834967680999902</v>
+        <v>-9.225798060478724</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.1343031605393926</v>
+        <v>7.550796614155111</v>
       </c>
       <c r="AB31" t="n">
-        <v>5.149407969886098</v>
+        <v>3.057361157425835</v>
       </c>
       <c r="AC31" t="n">
-        <v>357.6193442525272</v>
+        <v>-6.476734542867058</v>
       </c>
       <c r="AD31" t="n">
-        <v>-8.713680414499782</v>
+        <v>-2.621569760269661</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.593236364298703</v>
+        <v>0.3908582667064414</v>
       </c>
       <c r="AF31" t="n">
-        <v>-19.03029474225132</v>
+        <v>-0.4418443567485123</v>
       </c>
       <c r="AG31" t="n">
-        <v>-4.335110079267841</v>
+        <v>-13.1030656499709</v>
       </c>
     </row>
     <row r="32">
@@ -4700,100 +4700,100 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-3.944804028887643</v>
+        <v>8.469220701616871</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.541164832458636</v>
+        <v>-1.803814385549457</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8132203235278581</v>
+        <v>0.6479093807838885</v>
       </c>
       <c r="E32" t="n">
-        <v>6.237891797476057</v>
+        <v>9.515512429859513</v>
       </c>
       <c r="F32" t="n">
-        <v>-132.5280628054628</v>
+        <v>1.386669830361285</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.482371515106191</v>
+        <v>-5.940606042781961</v>
       </c>
       <c r="H32" t="n">
-        <v>11.39044725293475</v>
+        <v>-1.304476755666246</v>
       </c>
       <c r="I32" t="n">
-        <v>8.760589861736626</v>
+        <v>-6.835989460446393</v>
       </c>
       <c r="J32" t="n">
-        <v>25.13260568208647</v>
+        <v>0.1014178331422959</v>
       </c>
       <c r="K32" t="n">
-        <v>-11.41221313107633</v>
+        <v>-1.621734704349139</v>
       </c>
       <c r="L32" t="n">
-        <v>15.81717296869258</v>
+        <v>-0.004877115163329068</v>
       </c>
       <c r="M32" t="n">
-        <v>-9.294114997193983</v>
+        <v>-8.446634984714406</v>
       </c>
       <c r="N32" t="n">
-        <v>145.4327037325708</v>
+        <v>9.088066161046036</v>
       </c>
       <c r="O32" t="n">
-        <v>-15.41273635276725</v>
+        <v>-1.737981800546751</v>
       </c>
       <c r="P32" t="n">
-        <v>-4.649227625781575</v>
+        <v>2.301572776018635</v>
       </c>
       <c r="Q32" t="n">
-        <v>13.08224823141704</v>
+        <v>-0.9300564378706645</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.293749407435332</v>
+        <v>-4.405944159148052</v>
       </c>
       <c r="S32" t="n">
-        <v>6.943176254783988</v>
+        <v>0.7573520412181842</v>
       </c>
       <c r="T32" t="n">
-        <v>-9.29435256467168</v>
+        <v>10.11911514870249</v>
       </c>
       <c r="U32" t="n">
-        <v>-4.357759271369066</v>
+        <v>1.913987632231664</v>
       </c>
       <c r="V32" t="n">
-        <v>2.111544240894379</v>
+        <v>-0.484255854688866</v>
       </c>
       <c r="W32" t="n">
-        <v>-112.7903075204041</v>
+        <v>-2.289112281544047</v>
       </c>
       <c r="X32" t="n">
-        <v>6.925686889548398</v>
+        <v>5.10277945445042</v>
       </c>
       <c r="Y32" t="n">
-        <v>-27.56029123384052</v>
+        <v>8.947997470474725</v>
       </c>
       <c r="Z32" t="n">
-        <v>-2.686950425501525</v>
+        <v>5.616032416496936</v>
       </c>
       <c r="AA32" t="n">
-        <v>-2.285520840748782</v>
+        <v>-3.779782544236883</v>
       </c>
       <c r="AB32" t="n">
-        <v>-5.262959180576066</v>
+        <v>1.978992239705706</v>
       </c>
       <c r="AC32" t="n">
-        <v>340.4168187507777</v>
+        <v>2.964291049208999</v>
       </c>
       <c r="AD32" t="n">
-        <v>29.00684165866229</v>
+        <v>12.88137639076334</v>
       </c>
       <c r="AE32" t="n">
-        <v>22.27645630926412</v>
+        <v>-1.684677609686696</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.324886918667595</v>
+        <v>-0.3552468095761525</v>
       </c>
       <c r="AG32" t="n">
-        <v>-2.390665894999218</v>
+        <v>4.006212828583346</v>
       </c>
     </row>
     <row r="33">
@@ -4803,100 +4803,100 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.05977630829620902</v>
+        <v>-3.014116557084387</v>
       </c>
       <c r="C33" t="n">
-        <v>1.205795157706569</v>
+        <v>-1.67850078612878</v>
       </c>
       <c r="D33" t="n">
-        <v>-10.97242504357342</v>
+        <v>-9.665543009059341</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6435939370625267</v>
+        <v>-9.243509698641848</v>
       </c>
       <c r="F33" t="n">
-        <v>14.5136965660041</v>
+        <v>-6.314852211965089</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.262422739050322</v>
+        <v>-1.428460558097891</v>
       </c>
       <c r="H33" t="n">
-        <v>3.221399164683086</v>
+        <v>-2.153231050113976</v>
       </c>
       <c r="I33" t="n">
-        <v>-12.66931217843651</v>
+        <v>-6.908576317957528</v>
       </c>
       <c r="J33" t="n">
-        <v>-45.24388355452601</v>
+        <v>-2.560748070152537</v>
       </c>
       <c r="K33" t="n">
-        <v>-2.093577539484524</v>
+        <v>-2.232290743292938</v>
       </c>
       <c r="L33" t="n">
-        <v>9.093783282616132</v>
+        <v>-5.28397904998487</v>
       </c>
       <c r="M33" t="n">
-        <v>6.741962070779455</v>
+        <v>0.6810641850623262</v>
       </c>
       <c r="N33" t="n">
-        <v>-79.59828356534578</v>
+        <v>-4.873623993631155</v>
       </c>
       <c r="O33" t="n">
-        <v>30.16945144447845</v>
+        <v>1.087003209863564</v>
       </c>
       <c r="P33" t="n">
-        <v>0.1108234043326337</v>
+        <v>-6.013729322793719</v>
       </c>
       <c r="Q33" t="n">
-        <v>-32.69985722393319</v>
+        <v>-3.642359137305244</v>
       </c>
       <c r="R33" t="n">
-        <v>1.113502920890907</v>
+        <v>-13.20975163206743</v>
       </c>
       <c r="S33" t="n">
-        <v>0.3282762373278389</v>
+        <v>1.81270088631371</v>
       </c>
       <c r="T33" t="n">
-        <v>1.645118847391499</v>
+        <v>-14.72438536071685</v>
       </c>
       <c r="U33" t="n">
-        <v>4.899758322038839</v>
+        <v>-10.26782475914525</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.2092527702887536</v>
+        <v>-1.369159541710979</v>
       </c>
       <c r="W33" t="n">
-        <v>-9.195253992393777</v>
+        <v>0.1231890629153397</v>
       </c>
       <c r="X33" t="n">
-        <v>-14.33757135731058</v>
+        <v>-10.73137334494576</v>
       </c>
       <c r="Y33" t="n">
-        <v>-37.31425563253707</v>
+        <v>-16.54055071590618</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.7846472712602788</v>
+        <v>-8.651071542695082</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.3714436815523597</v>
+        <v>-4.148737504648963</v>
       </c>
       <c r="AB33" t="n">
-        <v>-1.24422850474297</v>
+        <v>1.472770280956878</v>
       </c>
       <c r="AC33" t="n">
-        <v>519.467778802217</v>
+        <v>-10.04599518391961</v>
       </c>
       <c r="AD33" t="n">
-        <v>-17.1391959182492</v>
+        <v>-11.18023852352455</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.396113358443516</v>
+        <v>4.649957618947014</v>
       </c>
       <c r="AF33" t="n">
-        <v>-0.1026000210195295</v>
+        <v>-0.4398547746510733</v>
       </c>
       <c r="AG33" t="n">
-        <v>-0.1128515474215087</v>
+        <v>-8.304140946292637</v>
       </c>
     </row>
     <row r="34">
@@ -4906,100 +4906,100 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.5296518505316763</v>
+        <v>-4.862988057347621</v>
       </c>
       <c r="C34" t="n">
-        <v>2.287064741266266</v>
+        <v>0.7613743017598595</v>
       </c>
       <c r="D34" t="n">
-        <v>9.999928191065248</v>
+        <v>0.5918247827861207</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9180307611935181</v>
+        <v>11.7419824415879</v>
       </c>
       <c r="F34" t="n">
-        <v>77.20466547935443</v>
+        <v>-7.752382143292913</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1336012118189733</v>
+        <v>-5.540929185357196</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.1856051677656333</v>
+        <v>1.308502385354334</v>
       </c>
       <c r="I34" t="n">
-        <v>-42.4151453398266</v>
+        <v>-0.263134155808857</v>
       </c>
       <c r="J34" t="n">
-        <v>-35.31144523187472</v>
+        <v>0.5015647180553932</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8847838019025777</v>
+        <v>0.4543226857203322</v>
       </c>
       <c r="L34" t="n">
-        <v>-12.02917519190428</v>
+        <v>-3.032787532346007</v>
       </c>
       <c r="M34" t="n">
-        <v>5.171426226472979</v>
+        <v>-1.847023804915705</v>
       </c>
       <c r="N34" t="n">
-        <v>58.26335517909038</v>
+        <v>-3.271106446219896</v>
       </c>
       <c r="O34" t="n">
-        <v>12.65252788358062</v>
+        <v>0.2172781966273588</v>
       </c>
       <c r="P34" t="n">
-        <v>-2.886235892030588</v>
+        <v>-3.121361847643233</v>
       </c>
       <c r="Q34" t="n">
-        <v>-22.53606111217552</v>
+        <v>-0.599999187626686</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.00621738657744</v>
+        <v>3.876172710139071</v>
       </c>
       <c r="S34" t="n">
-        <v>4.421839714509963</v>
+        <v>2.7639408543325</v>
       </c>
       <c r="T34" t="n">
-        <v>1.512605429714358</v>
+        <v>10.02998610205362</v>
       </c>
       <c r="U34" t="n">
-        <v>-2.927653239879705</v>
+        <v>5.472331225678987</v>
       </c>
       <c r="V34" t="n">
-        <v>8.853525553584115</v>
+        <v>1.898346524473927</v>
       </c>
       <c r="W34" t="n">
-        <v>32.37819865662875</v>
+        <v>0.8623798837079415</v>
       </c>
       <c r="X34" t="n">
-        <v>2.007439146844235</v>
+        <v>7.533822925606717</v>
       </c>
       <c r="Y34" t="n">
-        <v>-2.836056494787271</v>
+        <v>1.016780494052917</v>
       </c>
       <c r="Z34" t="n">
-        <v>-1.392648786364803</v>
+        <v>12.61191519964108</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.2055716617708343</v>
+        <v>4.842023303371168</v>
       </c>
       <c r="AB34" t="n">
-        <v>4.264281074416767</v>
+        <v>1.605593572548776</v>
       </c>
       <c r="AC34" t="n">
-        <v>402.3313484946787</v>
+        <v>12.67817966827153</v>
       </c>
       <c r="AD34" t="n">
-        <v>-32.47444595321052</v>
+        <v>11.03137124612131</v>
       </c>
       <c r="AE34" t="n">
-        <v>-17.9330752197268</v>
+        <v>3.901383954156284</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.812154804256041</v>
+        <v>-0.1613577067224605</v>
       </c>
       <c r="AG34" t="n">
-        <v>-1.258701244180361</v>
+        <v>15.17265054213288</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>175.8202349044114</v>
+        <v>154.5054939822374</v>
       </c>
     </row>
     <row r="3">
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.47135256528792</v>
+        <v>160.1728864125262</v>
       </c>
     </row>
     <row r="4">
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.76514634185037</v>
+        <v>45.90557351043758</v>
       </c>
     </row>
     <row r="5">
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.4553967530716</v>
+        <v>131.7386741740118</v>
       </c>
     </row>
     <row r="6">
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173.9834357955199</v>
+        <v>167.7280448245095</v>
       </c>
     </row>
     <row r="7">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>567.7126561248442</v>
+        <v>159.813842573015</v>
       </c>
     </row>
     <row r="8">
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.64422669765467</v>
+        <v>116.3450887962165</v>
       </c>
     </row>
     <row r="9">
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>132.2190912758388</v>
+        <v>49.20026419624803</v>
       </c>
     </row>
     <row r="10">
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.2850298045079</v>
+        <v>122.648688259199</v>
       </c>
     </row>
     <row r="11">
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>525.3869359213816</v>
+        <v>44.47691170007383</v>
       </c>
     </row>
     <row r="12">
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.90334365237221</v>
+        <v>45.87715555828456</v>
       </c>
     </row>
     <row r="13">
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.80688215307522</v>
+        <v>101.0262251722832</v>
       </c>
     </row>
     <row r="14">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.68582483877768</v>
+        <v>149.9929313077061</v>
       </c>
     </row>
     <row r="15">
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>896.0349471675953</v>
+        <v>153.1973706247009</v>
       </c>
     </row>
     <row r="16">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>312.4972644186803</v>
+        <v>-14.32110390301908</v>
       </c>
     </row>
     <row r="17">
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.55312826580158</v>
+        <v>105.4788175184829</v>
       </c>
     </row>
     <row r="18">
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>182.1022959752127</v>
+        <v>56.46313787435177</v>
       </c>
     </row>
     <row r="19">
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.35481655562472</v>
+        <v>150.2456493431118</v>
       </c>
     </row>
     <row r="20">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>172.2808683100852</v>
+        <v>-20.86802040697673</v>
       </c>
     </row>
     <row r="21">
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.48893282954451</v>
+        <v>164.5036988895671</v>
       </c>
     </row>
     <row r="22">
@@ -5235,7 +5235,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-55.1871766124688</v>
+        <v>159.1008303218421</v>
       </c>
     </row>
     <row r="23">
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>175.4439718075661</v>
+        <v>144.8202449726974</v>
       </c>
     </row>
     <row r="24">
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.6924952112038</v>
+        <v>157.9083310527227</v>
       </c>
     </row>
     <row r="25">
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.9597126834454</v>
+        <v>157.9442160730622</v>
       </c>
     </row>
     <row r="26">
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>148.0228188537457</v>
+        <v>155.7822286723615</v>
       </c>
     </row>
     <row r="27">
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33.34318954868915</v>
+        <v>169.7078744407631</v>
       </c>
     </row>
     <row r="28">
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.20320226401373</v>
+        <v>125.6915504796712</v>
       </c>
     </row>
     <row r="29">
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21.18202362912916</v>
+        <v>-18.29634537733956</v>
       </c>
     </row>
     <row r="30">
@@ -5315,7 +5315,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1140.114947172099</v>
+        <v>167.8939973763735</v>
       </c>
     </row>
     <row r="31">
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>197.0630187642677</v>
+        <v>167.4638838875662</v>
       </c>
     </row>
     <row r="32">
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114.6130737156325</v>
+        <v>159.9643786997237</v>
       </c>
     </row>
     <row r="33">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>155.4616947675796</v>
+        <v>37.77178067999166</v>
       </c>
     </row>
     <row r="34">
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.06791786864118</v>
+        <v>176.9980117877676</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte4/Excel/Network32.xlsx
+++ b/Networks/Parte4/Excel/Network32.xlsx
@@ -604,100 +604,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.3540759417745</v>
+        <v>-30.27489903002904</v>
       </c>
       <c r="C2" t="n">
-        <v>-120.2733173921764</v>
+        <v>-152.1415545240112</v>
       </c>
       <c r="D2" t="n">
-        <v>-113.3046259003042</v>
+        <v>20.83242542000025</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77144620774067</v>
+        <v>-145.8315547161298</v>
       </c>
       <c r="F2" t="n">
-        <v>-82.57267819363562</v>
+        <v>-79.57989081937687</v>
       </c>
       <c r="G2" t="n">
-        <v>19.57743875869254</v>
+        <v>-147.386889895123</v>
       </c>
       <c r="H2" t="n">
-        <v>-124.0675920693237</v>
+        <v>-127.8013978748248</v>
       </c>
       <c r="I2" t="n">
-        <v>-45.99152525712365</v>
+        <v>-18.06255994566574</v>
       </c>
       <c r="J2" t="n">
-        <v>-12.04583070897842</v>
+        <v>43.64485386328041</v>
       </c>
       <c r="K2" t="n">
-        <v>32.84410668465082</v>
+        <v>-78.65552465672546</v>
       </c>
       <c r="L2" t="n">
-        <v>-66.63685801097252</v>
+        <v>-65.18076827237216</v>
       </c>
       <c r="M2" t="n">
-        <v>-124.447685158994</v>
+        <v>-54.37526176848806</v>
       </c>
       <c r="N2" t="n">
-        <v>-126.7965635952092</v>
+        <v>51.26442628453914</v>
       </c>
       <c r="O2" t="n">
-        <v>-122.3600363713017</v>
+        <v>23.65862639771219</v>
       </c>
       <c r="P2" t="n">
-        <v>-99.68967979999672</v>
+        <v>31.31924963069078</v>
       </c>
       <c r="Q2" t="n">
-        <v>37.85730620432636</v>
+        <v>-105.5823450816674</v>
       </c>
       <c r="R2" t="n">
-        <v>-97.52013620817411</v>
+        <v>86.66885597241814</v>
       </c>
       <c r="S2" t="n">
-        <v>-86.11744058123153</v>
+        <v>86.93185084705405</v>
       </c>
       <c r="T2" t="n">
-        <v>-103.8245016248591</v>
+        <v>47.42853583291762</v>
       </c>
       <c r="U2" t="n">
-        <v>77.86525641066483</v>
+        <v>-79.8109998675646</v>
       </c>
       <c r="V2" t="n">
-        <v>76.45584690509951</v>
+        <v>81.26347589677995</v>
       </c>
       <c r="W2" t="n">
-        <v>-6.604941362545282</v>
+        <v>-10.68451527288545</v>
       </c>
       <c r="X2" t="n">
-        <v>-126.0900758271018</v>
+        <v>67.3593017339315</v>
       </c>
       <c r="Y2" t="n">
-        <v>-21.42104702548874</v>
+        <v>21.05483334275592</v>
       </c>
       <c r="Z2" t="n">
-        <v>-40.51583250403075</v>
+        <v>-155.4102889122529</v>
       </c>
       <c r="AA2" t="n">
-        <v>-4.964395251245289</v>
+        <v>50.59323289234769</v>
       </c>
       <c r="AB2" t="n">
-        <v>-64.98129665821438</v>
+        <v>-136.8958950770284</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.647235293393932</v>
+        <v>-144.5181960581445</v>
       </c>
       <c r="AD2" t="n">
-        <v>38.78174968642821</v>
+        <v>-103.0838805870093</v>
       </c>
       <c r="AE2" t="n">
-        <v>47.09549433890683</v>
+        <v>-12.220144093562</v>
       </c>
       <c r="AF2" t="n">
-        <v>69.49091108216912</v>
+        <v>-90.21879886942331</v>
       </c>
       <c r="AG2" t="n">
-        <v>-60.80638771234926</v>
+        <v>-117.5526664878728</v>
       </c>
     </row>
     <row r="3">
@@ -707,100 +707,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.13864494009673</v>
+        <v>57.75417524285203</v>
       </c>
       <c r="C3" t="n">
-        <v>29.80702222605929</v>
+        <v>39.29106044185396</v>
       </c>
       <c r="D3" t="n">
-        <v>47.45080307976712</v>
+        <v>60.68990455024806</v>
       </c>
       <c r="E3" t="n">
-        <v>58.65993824244969</v>
+        <v>38.90536171120362</v>
       </c>
       <c r="F3" t="n">
-        <v>59.37196460987654</v>
+        <v>58.69484828890157</v>
       </c>
       <c r="G3" t="n">
-        <v>48.52608642248669</v>
+        <v>42.62991949346272</v>
       </c>
       <c r="H3" t="n">
-        <v>36.98414082051413</v>
+        <v>51.71506694414398</v>
       </c>
       <c r="I3" t="n">
-        <v>64.86890823176789</v>
+        <v>75.96680547931534</v>
       </c>
       <c r="J3" t="n">
-        <v>44.10061523622063</v>
+        <v>57.22870735148612</v>
       </c>
       <c r="K3" t="n">
-        <v>-36.42456664885146</v>
+        <v>49.87497973461906</v>
       </c>
       <c r="L3" t="n">
-        <v>57.26697460249303</v>
+        <v>10.06666592643628</v>
       </c>
       <c r="M3" t="n">
-        <v>42.43716400519593</v>
+        <v>73.91959757512666</v>
       </c>
       <c r="N3" t="n">
-        <v>39.18588345079369</v>
+        <v>-59.40230455297004</v>
       </c>
       <c r="O3" t="n">
-        <v>30.31593560983816</v>
+        <v>-24.44628010608801</v>
       </c>
       <c r="P3" t="n">
-        <v>48.5238229975761</v>
+        <v>81.09611697784671</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.55338052467903</v>
+        <v>19.05216405399813</v>
       </c>
       <c r="R3" t="n">
-        <v>50.8955975851417</v>
+        <v>64.78557669855587</v>
       </c>
       <c r="S3" t="n">
-        <v>44.91891757125926</v>
+        <v>-50.25922684480149</v>
       </c>
       <c r="T3" t="n">
-        <v>28.63804526698671</v>
+        <v>41.03347758874973</v>
       </c>
       <c r="U3" t="n">
-        <v>57.96552023207537</v>
+        <v>75.98988429763945</v>
       </c>
       <c r="V3" t="n">
-        <v>40.0872520486913</v>
+        <v>37.55285077064721</v>
       </c>
       <c r="W3" t="n">
-        <v>70.42783884758342</v>
+        <v>85.20077903427642</v>
       </c>
       <c r="X3" t="n">
-        <v>23.85830496748623</v>
+        <v>76.89989822886773</v>
       </c>
       <c r="Y3" t="n">
-        <v>52.75594083327413</v>
+        <v>64.31119698018013</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.595939649576708</v>
+        <v>23.59921797450943</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.96854706711159</v>
+        <v>25.55257705930565</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.82555233959918</v>
+        <v>46.18467283907875</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.88413271846042</v>
+        <v>43.10183343647508</v>
       </c>
       <c r="AD3" t="n">
-        <v>51.25258951893222</v>
+        <v>53.28590341901961</v>
       </c>
       <c r="AE3" t="n">
-        <v>35.30772288467722</v>
+        <v>49.51897827006584</v>
       </c>
       <c r="AF3" t="n">
-        <v>-42.74012348392575</v>
+        <v>61.6950911617875</v>
       </c>
       <c r="AG3" t="n">
-        <v>53.64666829349719</v>
+        <v>54.9394035278943</v>
       </c>
     </row>
     <row r="4">
@@ -810,100 +810,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.017291086711332</v>
+        <v>6.714787350884669</v>
       </c>
       <c r="C4" t="n">
-        <v>29.30341640063761</v>
+        <v>37.4611246710507</v>
       </c>
       <c r="D4" t="n">
-        <v>39.59021108308259</v>
+        <v>2.325409720032322</v>
       </c>
       <c r="E4" t="n">
-        <v>5.773389470431542</v>
+        <v>39.42331927377491</v>
       </c>
       <c r="F4" t="n">
-        <v>52.4765908310205</v>
+        <v>28.16276651851676</v>
       </c>
       <c r="G4" t="n">
-        <v>73.11150921452958</v>
+        <v>34.08051635215157</v>
       </c>
       <c r="H4" t="n">
-        <v>34.8438735156803</v>
+        <v>47.70003971236558</v>
       </c>
       <c r="I4" t="n">
-        <v>73.3310941111806</v>
+        <v>69.17165073573764</v>
       </c>
       <c r="J4" t="n">
-        <v>12.03432531750906</v>
+        <v>24.52548263318337</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49000542639823</v>
+        <v>21.07606082838454</v>
       </c>
       <c r="L4" t="n">
-        <v>18.23680880362118</v>
+        <v>4.199831247660823</v>
       </c>
       <c r="M4" t="n">
-        <v>50.91775835638605</v>
+        <v>70.51299035709494</v>
       </c>
       <c r="N4" t="n">
-        <v>29.01987820152272</v>
+        <v>47.07424009345372</v>
       </c>
       <c r="O4" t="n">
-        <v>33.94436880596161</v>
+        <v>15.76919759840077</v>
       </c>
       <c r="P4" t="n">
-        <v>39.49750383583633</v>
+        <v>-1.124949953085612</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.25065569908484</v>
+        <v>7.677868112065986</v>
       </c>
       <c r="R4" t="n">
-        <v>57.50740917729178</v>
+        <v>-1.995515250607623</v>
       </c>
       <c r="S4" t="n">
-        <v>22.28284052404403</v>
+        <v>46.77103597375181</v>
       </c>
       <c r="T4" t="n">
-        <v>28.13512344748716</v>
+        <v>64.09454473166639</v>
       </c>
       <c r="U4" t="n">
-        <v>1.616981649638088</v>
+        <v>60.30771993427442</v>
       </c>
       <c r="V4" t="n">
-        <v>-33.38707936299773</v>
+        <v>-34.58465874862808</v>
       </c>
       <c r="W4" t="n">
-        <v>71.90764036609923</v>
+        <v>6.358599230146141</v>
       </c>
       <c r="X4" t="n">
-        <v>27.75351646973061</v>
+        <v>-2.033536107865648</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.4713266517416</v>
+        <v>72.6340031105791</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.3361804436764507</v>
+        <v>16.07454888459889</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.385775124366125</v>
+        <v>2.889836972863639</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.53514426628116</v>
+        <v>44.874402244904</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.78200095576562</v>
+        <v>30.7951532194836</v>
       </c>
       <c r="AD4" t="n">
-        <v>-15.84431037406823</v>
+        <v>51.86568672934318</v>
       </c>
       <c r="AE4" t="n">
-        <v>58.7737310002573</v>
+        <v>17.54353714586911</v>
       </c>
       <c r="AF4" t="n">
-        <v>51.42609940139438</v>
+        <v>55.40738180792781</v>
       </c>
       <c r="AG4" t="n">
-        <v>26.22475477729969</v>
+        <v>29.90902521375602</v>
       </c>
     </row>
     <row r="5">
@@ -913,100 +913,100 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.49262811299866</v>
+        <v>15.66750599704562</v>
       </c>
       <c r="C5" t="n">
-        <v>24.10153067243275</v>
+        <v>24.46657546250766</v>
       </c>
       <c r="D5" t="n">
-        <v>18.94429220269512</v>
+        <v>5.968189241984803</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2563714055030804</v>
+        <v>26.26310050179796</v>
       </c>
       <c r="F5" t="n">
-        <v>13.39341638210613</v>
+        <v>16.42823365822654</v>
       </c>
       <c r="G5" t="n">
-        <v>2.083021846936969</v>
+        <v>14.58793616064086</v>
       </c>
       <c r="H5" t="n">
-        <v>7.378101580181267</v>
+        <v>19.26499243594504</v>
       </c>
       <c r="I5" t="n">
-        <v>16.99103440199851</v>
+        <v>9.24785426793197</v>
       </c>
       <c r="J5" t="n">
-        <v>70.98404083194325</v>
+        <v>-28.06201027602544</v>
       </c>
       <c r="K5" t="n">
-        <v>6.962877812743891</v>
+        <v>61.13881822341408</v>
       </c>
       <c r="L5" t="n">
-        <v>59.93649615852206</v>
+        <v>6.135560118807435</v>
       </c>
       <c r="M5" t="n">
-        <v>13.52914491864109</v>
+        <v>19.9152777514283</v>
       </c>
       <c r="N5" t="n">
-        <v>29.24339998433957</v>
+        <v>7.750183199007095</v>
       </c>
       <c r="O5" t="n">
-        <v>15.96795177358336</v>
+        <v>5.575052918672212</v>
       </c>
       <c r="P5" t="n">
-        <v>25.40267672167553</v>
+        <v>7.452073104405545</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2105521328583728</v>
+        <v>8.691357043100254</v>
       </c>
       <c r="R5" t="n">
-        <v>15.85935366570014</v>
+        <v>-1.091461637882126</v>
       </c>
       <c r="S5" t="n">
-        <v>20.57102633975283</v>
+        <v>2.249356761641174</v>
       </c>
       <c r="T5" t="n">
-        <v>14.03481921631968</v>
+        <v>-2.228139676524757</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.229997064540151</v>
+        <v>20.46477330017541</v>
       </c>
       <c r="V5" t="n">
-        <v>-13.47168990273774</v>
+        <v>-8.847529979929787</v>
       </c>
       <c r="W5" t="n">
-        <v>15.46509640852319</v>
+        <v>3.658662751782725</v>
       </c>
       <c r="X5" t="n">
-        <v>26.46657625225466</v>
+        <v>11.38994834708995</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.646314164832136</v>
+        <v>10.22854371175321</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4640873150518564</v>
+        <v>20.95589392296438</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.7273237151246494</v>
+        <v>71.3125702763661</v>
       </c>
       <c r="AB5" t="n">
-        <v>20.16467897030997</v>
+        <v>17.13339133623589</v>
       </c>
       <c r="AC5" t="n">
-        <v>19.66937006502575</v>
+        <v>23.33599653421206</v>
       </c>
       <c r="AD5" t="n">
-        <v>-9.070687368925094</v>
+        <v>15.11068112564476</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.799622816177632</v>
+        <v>78.15509980571362</v>
       </c>
       <c r="AF5" t="n">
-        <v>-5.573280077467873</v>
+        <v>14.40061446770762</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.475680768765234</v>
+        <v>26.60449706936466</v>
       </c>
     </row>
     <row r="6">
@@ -1016,100 +1016,100 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.483279598379984</v>
+        <v>52.47380568030827</v>
       </c>
       <c r="C6" t="n">
-        <v>14.79644347406674</v>
+        <v>15.2003123025854</v>
       </c>
       <c r="D6" t="n">
-        <v>18.35448321615567</v>
+        <v>51.18742842744368</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.135749692243325</v>
+        <v>19.808579148603</v>
       </c>
       <c r="F6" t="n">
-        <v>10.28103256847477</v>
+        <v>35.24070667466275</v>
       </c>
       <c r="G6" t="n">
-        <v>6.903821058678416</v>
+        <v>15.91164210262577</v>
       </c>
       <c r="H6" t="n">
-        <v>6.741716828800484</v>
+        <v>15.65922211629938</v>
       </c>
       <c r="I6" t="n">
-        <v>7.565130586568865</v>
+        <v>13.16496239297986</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.925126158093329</v>
+        <v>-15.4995679069612</v>
       </c>
       <c r="K6" t="n">
-        <v>18.38521839239819</v>
+        <v>-0.03344658073208385</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04812306230233745</v>
+        <v>-1.098767362602458</v>
       </c>
       <c r="M6" t="n">
-        <v>6.01382793521188</v>
+        <v>16.70456266635139</v>
       </c>
       <c r="N6" t="n">
-        <v>23.33073902589936</v>
+        <v>3.963187802979547</v>
       </c>
       <c r="O6" t="n">
-        <v>13.71372806968908</v>
+        <v>40.31583430605048</v>
       </c>
       <c r="P6" t="n">
-        <v>11.91813597051414</v>
+        <v>1.814766073482197</v>
       </c>
       <c r="Q6" t="n">
-        <v>-9.99907160362608</v>
+        <v>5.322143451671064</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2679054947207961</v>
+        <v>-2.567816822302422</v>
       </c>
       <c r="S6" t="n">
-        <v>38.56313832719648</v>
+        <v>-9.31253623039375</v>
       </c>
       <c r="T6" t="n">
-        <v>12.00348215794741</v>
+        <v>-7.402618936522964</v>
       </c>
       <c r="U6" t="n">
-        <v>-4.498620456622771</v>
+        <v>10.04901321461313</v>
       </c>
       <c r="V6" t="n">
-        <v>-7.02414803521048</v>
+        <v>-0.2785611117941658</v>
       </c>
       <c r="W6" t="n">
-        <v>15.81941522092139</v>
+        <v>-0.1123808313205119</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5220502440933</v>
+        <v>0.7319039785142712</v>
       </c>
       <c r="Y6" t="n">
-        <v>55.98413514798266</v>
+        <v>6.482183268135226</v>
       </c>
       <c r="Z6" t="n">
-        <v>-2.407629452049434</v>
+        <v>12.22167775820444</v>
       </c>
       <c r="AA6" t="n">
-        <v>-3.264934652503409</v>
+        <v>3.096445836634126</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.717231529930915</v>
+        <v>14.83197012450808</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.25263705857113</v>
+        <v>27.80641290142067</v>
       </c>
       <c r="AD6" t="n">
-        <v>51.07061790529499</v>
+        <v>11.6050314190747</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.6292761073923168</v>
+        <v>0.7299276482446048</v>
       </c>
       <c r="AF6" t="n">
-        <v>-5.853737404695491</v>
+        <v>11.25369838569815</v>
       </c>
       <c r="AG6" t="n">
-        <v>41.20770601757702</v>
+        <v>30.30007031499678</v>
       </c>
     </row>
     <row r="7">
@@ -1119,100 +1119,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.560839063089365</v>
+        <v>4.713268569474992</v>
       </c>
       <c r="C7" t="n">
-        <v>3.15341858615603</v>
+        <v>3.763606462986671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1567906301947125</v>
+        <v>-0.8098497484052419</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.839628527690386</v>
+        <v>6.80030620908929</v>
       </c>
       <c r="F7" t="n">
-        <v>4.345161879999123</v>
+        <v>7.127584678339633</v>
       </c>
       <c r="G7" t="n">
-        <v>6.196573091427156</v>
+        <v>3.089229845304367</v>
       </c>
       <c r="H7" t="n">
-        <v>2.784322897789132</v>
+        <v>3.621356894148357</v>
       </c>
       <c r="I7" t="n">
-        <v>1.160245054567797</v>
+        <v>3.203876443572137</v>
       </c>
       <c r="J7" t="n">
-        <v>2.205144352951739</v>
+        <v>-1.368370289039257</v>
       </c>
       <c r="K7" t="n">
-        <v>1.52668910334474</v>
+        <v>0.9345926041302676</v>
       </c>
       <c r="L7" t="n">
-        <v>4.501305454765087</v>
+        <v>0.07624217334715665</v>
       </c>
       <c r="M7" t="n">
-        <v>7.822182322435859</v>
+        <v>2.257904156217481</v>
       </c>
       <c r="N7" t="n">
-        <v>4.532857436034452</v>
+        <v>6.788941879798618</v>
       </c>
       <c r="O7" t="n">
-        <v>7.248399399865566</v>
+        <v>-3.324281139302879</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9493627978396006</v>
+        <v>5.589344408181416</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01517950566595182</v>
+        <v>-3.220616510439783</v>
       </c>
       <c r="R7" t="n">
-        <v>0.902591282538507</v>
+        <v>2.72402018678163</v>
       </c>
       <c r="S7" t="n">
-        <v>4.051269535971943</v>
+        <v>2.296029851937836</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.515695187273264</v>
+        <v>3.028130681307299</v>
       </c>
       <c r="U7" t="n">
-        <v>-2.132622967010744</v>
+        <v>1.823720919970127</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.7597067345787445</v>
+        <v>-4.452414244357945</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4023553295001667</v>
+        <v>1.163195890823813</v>
       </c>
       <c r="X7" t="n">
-        <v>-2.963750325494782</v>
+        <v>1.930226176551727</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.660050858335993</v>
+        <v>5.01478023999347</v>
       </c>
       <c r="Z7" t="n">
-        <v>-2.699358139580796</v>
+        <v>-7.994027945058039</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.937227201096313</v>
+        <v>0.8829905125805944</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.372057456453844</v>
+        <v>2.058581498678477</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.779123038682259</v>
+        <v>2.096996323565326</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.158661045687554</v>
+        <v>2.220510811774062</v>
       </c>
       <c r="AE7" t="n">
-        <v>4.745100757568529</v>
+        <v>2.583119724155684</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.604363491362919</v>
+        <v>1.485885907755092</v>
       </c>
       <c r="AG7" t="n">
-        <v>4.565938918452924</v>
+        <v>6.086095158961101</v>
       </c>
     </row>
     <row r="8">
@@ -1222,100 +1222,100 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.348694648137555</v>
+        <v>-0.8971912432120378</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.115438892794463</v>
+        <v>0.7208450385569355</v>
       </c>
       <c r="D8" t="n">
-        <v>0.84421370730319</v>
+        <v>0.1207706340893689</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3403799820817199</v>
+        <v>2.928283939502299</v>
       </c>
       <c r="F8" t="n">
-        <v>3.118342215510038</v>
+        <v>2.314829968411649</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.475457777033124</v>
+        <v>9.423406879937298</v>
       </c>
       <c r="H8" t="n">
-        <v>3.041273552810262</v>
+        <v>1.748787151405128</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.089600259594099</v>
+        <v>-1.829041600034353</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.4397563654769326</v>
+        <v>-2.388070825376361</v>
       </c>
       <c r="K8" t="n">
-        <v>1.776677038993219</v>
+        <v>2.130436753590145</v>
       </c>
       <c r="L8" t="n">
-        <v>1.422117379263658</v>
+        <v>-2.081776856862428</v>
       </c>
       <c r="M8" t="n">
-        <v>2.129932820180682</v>
+        <v>-0.07474095839938127</v>
       </c>
       <c r="N8" t="n">
-        <v>4.225997492282903</v>
+        <v>5.916748969482803</v>
       </c>
       <c r="O8" t="n">
-        <v>1.550638807605548</v>
+        <v>1.945332563870798</v>
       </c>
       <c r="P8" t="n">
-        <v>3.834637427848817</v>
+        <v>2.948413501483515</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.038808914921304</v>
+        <v>2.057930001542789</v>
       </c>
       <c r="R8" t="n">
-        <v>1.714062243144297</v>
+        <v>-0.9456325367305543</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.5197410223021798</v>
+        <v>1.501575441969393</v>
       </c>
       <c r="T8" t="n">
-        <v>3.98319094052592</v>
+        <v>0.000737904577056768</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7693858466841833</v>
+        <v>2.944765053723693</v>
       </c>
       <c r="V8" t="n">
-        <v>2.708168053485928</v>
+        <v>-1.586947723765041</v>
       </c>
       <c r="W8" t="n">
-        <v>2.850835556088832</v>
+        <v>3.570756927188045</v>
       </c>
       <c r="X8" t="n">
-        <v>-3.622361997259234</v>
+        <v>2.017889605197311</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9676207807947738</v>
+        <v>5.871571912806133</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.944215460136968</v>
+        <v>7.444106203099242</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.329202607734628</v>
+        <v>-0.1141496849993593</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3814476635977148</v>
+        <v>0.8062983538251387</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.750775771905677</v>
+        <v>3.655043510835895</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.9282158961062993</v>
+        <v>-0.7913074860795126</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.9245582413511406</v>
+        <v>4.448988280690143</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.549608755875257</v>
+        <v>1.380213633580193</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.972125669441315</v>
+        <v>4.623662512197031</v>
       </c>
     </row>
     <row r="9">
@@ -1325,100 +1325,100 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.23560711679174</v>
+        <v>1.538630950940622</v>
       </c>
       <c r="C9" t="n">
-        <v>3.27211801741896</v>
+        <v>1.159227869447254</v>
       </c>
       <c r="D9" t="n">
-        <v>1.504745867258878</v>
+        <v>-1.030574194866747</v>
       </c>
       <c r="E9" t="n">
-        <v>1.666346444699036</v>
+        <v>-1.784726720803485</v>
       </c>
       <c r="F9" t="n">
-        <v>3.274942506065881</v>
+        <v>4.105175251848701</v>
       </c>
       <c r="G9" t="n">
-        <v>2.598218417741796</v>
+        <v>3.251968909178387</v>
       </c>
       <c r="H9" t="n">
-        <v>3.508007158389559</v>
+        <v>0.08478000427435187</v>
       </c>
       <c r="I9" t="n">
-        <v>1.924901175980303</v>
+        <v>1.429253475811857</v>
       </c>
       <c r="J9" t="n">
-        <v>2.391636772544932</v>
+        <v>-2.456613194015635</v>
       </c>
       <c r="K9" t="n">
-        <v>1.531315996765208</v>
+        <v>2.221579905172504</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0488316014006396</v>
+        <v>-1.733790125250313</v>
       </c>
       <c r="M9" t="n">
-        <v>2.315654128505117</v>
+        <v>0.7401943085348683</v>
       </c>
       <c r="N9" t="n">
-        <v>0.008753131146442253</v>
+        <v>-3.450256499657819</v>
       </c>
       <c r="O9" t="n">
-        <v>-3.587061323638958</v>
+        <v>2.637183231694811</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3329709128384425</v>
+        <v>-0.780888122495643</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.950499943208838</v>
+        <v>-2.49534920114796</v>
       </c>
       <c r="R9" t="n">
-        <v>2.821364086510493</v>
+        <v>-2.069745322989521</v>
       </c>
       <c r="S9" t="n">
-        <v>-3.377211649886273</v>
+        <v>-0.7793209111081707</v>
       </c>
       <c r="T9" t="n">
-        <v>1.263538481561883</v>
+        <v>2.407850144292722</v>
       </c>
       <c r="U9" t="n">
-        <v>-1.319380820038725</v>
+        <v>1.042748983176793</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.2621693983626133</v>
+        <v>2.353777005179876</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.9371304963901861</v>
+        <v>1.140691910568137</v>
       </c>
       <c r="X9" t="n">
-        <v>14.72120658548456</v>
+        <v>1.107968101845079</v>
       </c>
       <c r="Y9" t="n">
-        <v>-1.030101403321102</v>
+        <v>1.741245889044624</v>
       </c>
       <c r="Z9" t="n">
-        <v>-3.252436152261073</v>
+        <v>0.2200836972725721</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.316398446485783</v>
+        <v>2.644048735455013</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.727773303223464</v>
+        <v>0.9675114410057984</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.752438365028954</v>
+        <v>8.51214180496504</v>
       </c>
       <c r="AD9" t="n">
-        <v>-2.132611362071587</v>
+        <v>5.229336521746871</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.281296410592615</v>
+        <v>1.602195406766575</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.451700209587584</v>
+        <v>0.6711911971716212</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.392369842504752</v>
+        <v>-1.12960332997858</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-400.7057628240357</v>
+        <v>-474.3896606159175</v>
       </c>
     </row>
     <row r="3">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.2533291498608</v>
+        <v>93.51730546290521</v>
       </c>
     </row>
     <row r="4">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.5183447560617</v>
+        <v>202.91678379851</v>
       </c>
     </row>
     <row r="5">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.556446010218</v>
+        <v>96.45321980283236</v>
       </c>
     </row>
     <row r="6">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133.5125294581846</v>
+        <v>192.7555499457189</v>
       </c>
     </row>
     <row r="7">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.5162122697588</v>
+        <v>122.711257721136</v>
       </c>
     </row>
     <row r="8">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.508917661874</v>
+        <v>189.3599341895726</v>
       </c>
     </row>
     <row r="9">
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.8338980359621</v>
+        <v>164.8034558861076</v>
       </c>
     </row>
     <row r="10">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>126.7256126087946</v>
+        <v>128.7638577380247</v>
       </c>
     </row>
     <row r="11">
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.32222799056375</v>
+        <v>79.55653933724403</v>
       </c>
     </row>
     <row r="12">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>129.8759995794461</v>
+        <v>96.45468444140393</v>
       </c>
     </row>
     <row r="13">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.6795388219992</v>
+        <v>103.5104685533915</v>
       </c>
     </row>
     <row r="14">
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.5464791826923</v>
+        <v>144.4740592637941</v>
       </c>
     </row>
     <row r="15">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>175.9267172052145</v>
+        <v>129.6809557750533</v>
       </c>
     </row>
     <row r="16">
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.8816236910536</v>
+        <v>92.02429434827094</v>
       </c>
     </row>
     <row r="17">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>124.416683883951</v>
+        <v>128.7270347499554</v>
       </c>
     </row>
     <row r="18">
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120.5982731829831</v>
+        <v>144.2775843583414</v>
       </c>
     </row>
     <row r="19">
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.6246400604621</v>
+        <v>153.7987484693824</v>
       </c>
     </row>
     <row r="20">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.4946355444125</v>
+        <v>155.9886170366993</v>
       </c>
     </row>
     <row r="21">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.6893502130989</v>
+        <v>119.7614527085758</v>
       </c>
     </row>
     <row r="22">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.5603782390095</v>
+        <v>152.2269251910555</v>
       </c>
     </row>
     <row r="23">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.9903864714445</v>
+        <v>135.0297723426421</v>
       </c>
     </row>
     <row r="24">
@@ -1674,7 +1674,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>122.0274543853514</v>
+        <v>125.1869135699158</v>
       </c>
     </row>
     <row r="25">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3429520118831</v>
+        <v>143.148853936299</v>
       </c>
     </row>
     <row r="26">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>92.99384057809847</v>
+        <v>123.543510735126</v>
       </c>
     </row>
     <row r="27">
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>94.17193744383252</v>
+        <v>179.3296557396869</v>
       </c>
     </row>
     <row r="28">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9105751636042</v>
+        <v>104.5971576699228</v>
       </c>
     </row>
     <row r="29">
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>134.6922412941445</v>
+        <v>183.3865686715589</v>
       </c>
     </row>
     <row r="30">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>94.75657626377345</v>
+        <v>193.4881044582083</v>
       </c>
     </row>
     <row r="31">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.88485209172326</v>
+        <v>157.5942876512774</v>
       </c>
     </row>
     <row r="32">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>117.9072220905807</v>
+        <v>90.8991366148137</v>
       </c>
     </row>
     <row r="33">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>149.1396694260861</v>
+        <v>152.6016450036077</v>
       </c>
     </row>
     <row r="34">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.2844434318427</v>
+        <v>160.1325962518694</v>
       </c>
     </row>
   </sheetData>
